--- a/tahmin_sonuclari.xlsx
+++ b/tahmin_sonuclari.xlsx
@@ -29,12 +29,24 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FF00"/>
+        <bgColor rgb="0000FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -55,11 +67,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -471,7 +485,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D2" t="b">
+      <c r="D2" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -491,7 +505,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D3" t="b">
+      <c r="D3" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -511,7 +525,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D4" t="b">
+      <c r="D4" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -531,7 +545,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D5" t="b">
+      <c r="D5" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -551,7 +565,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D6" t="b">
+      <c r="D6" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -571,7 +585,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D7" t="b">
+      <c r="D7" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -591,7 +605,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D8" t="b">
+      <c r="D8" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -611,7 +625,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D9" t="b">
+      <c r="D9" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -631,7 +645,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D10" t="b">
+      <c r="D10" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -651,7 +665,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D11" t="b">
+      <c r="D11" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -671,7 +685,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D12" t="b">
+      <c r="D12" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -691,7 +705,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D13" t="b">
+      <c r="D13" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -711,7 +725,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D14" t="b">
+      <c r="D14" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -731,7 +745,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D15" t="b">
+      <c r="D15" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -751,7 +765,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D16" t="b">
+      <c r="D16" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -771,7 +785,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D17" t="b">
+      <c r="D17" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -791,7 +805,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D18" t="b">
+      <c r="D18" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -811,7 +825,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D19" t="b">
+      <c r="D19" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -831,7 +845,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D20" t="b">
+      <c r="D20" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -851,7 +865,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D21" t="b">
+      <c r="D21" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -871,7 +885,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D22" t="b">
+      <c r="D22" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -891,7 +905,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D23" t="b">
+      <c r="D23" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -911,7 +925,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D24" t="b">
+      <c r="D24" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -931,7 +945,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D25" t="b">
+      <c r="D25" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -951,7 +965,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D26" t="b">
+      <c r="D26" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -971,7 +985,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D27" t="b">
+      <c r="D27" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -991,7 +1005,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D28" t="b">
+      <c r="D28" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1003,7 +1017,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1011,8 +1025,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D29" t="b">
-        <v>0</v>
+      <c r="D29" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1031,7 +1045,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D30" t="b">
+      <c r="D30" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1051,7 +1065,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D31" t="b">
+      <c r="D31" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1071,7 +1085,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D32" t="b">
+      <c r="D32" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1091,7 +1105,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D33" t="b">
+      <c r="D33" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1111,7 +1125,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D34" t="b">
+      <c r="D34" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1131,7 +1145,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D35" t="b">
+      <c r="D35" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1151,7 +1165,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D36" t="b">
+      <c r="D36" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1171,7 +1185,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D37" t="b">
+      <c r="D37" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1191,7 +1205,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D38" t="b">
+      <c r="D38" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1211,7 +1225,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D39" t="b">
+      <c r="D39" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1231,7 +1245,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D40" t="b">
+      <c r="D40" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1251,7 +1265,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D41" t="b">
+      <c r="D41" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1271,7 +1285,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D42" t="b">
+      <c r="D42" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1291,7 +1305,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D43" t="b">
+      <c r="D43" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1311,7 +1325,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D44" t="b">
+      <c r="D44" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1331,7 +1345,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D45" t="b">
+      <c r="D45" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1351,7 +1365,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D46" t="b">
+      <c r="D46" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1371,7 +1385,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D47" t="b">
+      <c r="D47" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1391,7 +1405,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D48" t="b">
+      <c r="D48" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1411,7 +1425,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D49" t="b">
+      <c r="D49" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1431,7 +1445,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D50" t="b">
+      <c r="D50" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1451,7 +1465,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D51" t="b">
+      <c r="D51" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1471,7 +1485,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D52" t="b">
+      <c r="D52" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1491,7 +1505,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D53" t="b">
+      <c r="D53" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1511,7 +1525,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D54" t="b">
+      <c r="D54" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1531,7 +1545,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D55" t="b">
+      <c r="D55" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1551,7 +1565,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D56" t="b">
+      <c r="D56" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1571,7 +1585,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D57" t="b">
+      <c r="D57" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1591,7 +1605,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D58" t="b">
+      <c r="D58" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1611,7 +1625,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D59" t="b">
+      <c r="D59" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1631,7 +1645,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D60" t="b">
+      <c r="D60" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1651,7 +1665,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D61" t="b">
+      <c r="D61" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1671,7 +1685,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D62" t="b">
+      <c r="D62" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1691,7 +1705,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D63" t="b">
+      <c r="D63" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1711,7 +1725,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D64" t="b">
+      <c r="D64" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1731,7 +1745,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D65" t="b">
+      <c r="D65" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1751,7 +1765,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D66" t="b">
+      <c r="D66" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1771,7 +1785,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D67" t="b">
+      <c r="D67" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1791,7 +1805,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D68" t="b">
+      <c r="D68" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1811,7 +1825,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D69" t="b">
+      <c r="D69" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1831,7 +1845,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D70" t="b">
+      <c r="D70" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1851,7 +1865,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D71" t="b">
+      <c r="D71" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1871,7 +1885,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D72" t="b">
+      <c r="D72" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1891,7 +1905,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D73" t="b">
+      <c r="D73" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1911,7 +1925,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D74" t="b">
+      <c r="D74" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1931,7 +1945,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D75" t="b">
+      <c r="D75" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1951,7 +1965,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D76" t="b">
+      <c r="D76" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1971,7 +1985,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D77" t="b">
+      <c r="D77" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1991,7 +2005,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D78" t="b">
+      <c r="D78" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2011,7 +2025,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D79" t="b">
+      <c r="D79" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2031,7 +2045,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D80" t="b">
+      <c r="D80" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2051,7 +2065,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D81" t="b">
+      <c r="D81" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2071,7 +2085,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D82" t="b">
+      <c r="D82" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2091,7 +2105,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D83" t="b">
+      <c r="D83" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2111,7 +2125,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D84" t="b">
+      <c r="D84" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2131,7 +2145,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D85" t="b">
+      <c r="D85" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2151,7 +2165,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D86" t="b">
+      <c r="D86" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2171,7 +2185,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D87" t="b">
+      <c r="D87" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2191,7 +2205,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D88" t="b">
+      <c r="D88" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2211,7 +2225,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D89" t="b">
+      <c r="D89" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2231,7 +2245,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D90" t="b">
+      <c r="D90" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2251,7 +2265,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D91" t="b">
+      <c r="D91" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2271,7 +2285,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D92" t="b">
+      <c r="D92" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2291,7 +2305,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D93" t="b">
+      <c r="D93" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2311,7 +2325,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D94" t="b">
+      <c r="D94" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2331,7 +2345,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D95" t="b">
+      <c r="D95" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2351,7 +2365,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D96" t="b">
+      <c r="D96" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2371,7 +2385,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D97" t="b">
+      <c r="D97" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2391,7 +2405,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D98" t="b">
+      <c r="D98" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2411,7 +2425,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D99" t="b">
+      <c r="D99" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2431,7 +2445,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D100" t="b">
+      <c r="D100" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2451,7 +2465,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D101" t="b">
+      <c r="D101" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2471,7 +2485,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D102" t="b">
+      <c r="D102" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2491,7 +2505,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D103" t="b">
+      <c r="D103" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2511,7 +2525,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D104" t="b">
+      <c r="D104" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2531,7 +2545,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D105" t="b">
+      <c r="D105" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2551,7 +2565,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D106" t="b">
+      <c r="D106" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2571,7 +2585,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D107" t="b">
+      <c r="D107" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2591,7 +2605,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D108" t="b">
+      <c r="D108" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2611,7 +2625,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D109" t="b">
+      <c r="D109" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2631,7 +2645,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D110" t="b">
+      <c r="D110" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2651,7 +2665,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D111" t="b">
+      <c r="D111" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2671,7 +2685,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D112" t="b">
+      <c r="D112" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2691,7 +2705,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D113" t="b">
+      <c r="D113" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2711,7 +2725,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D114" t="b">
+      <c r="D114" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2731,7 +2745,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D115" t="b">
+      <c r="D115" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2751,7 +2765,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D116" t="b">
+      <c r="D116" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2771,7 +2785,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D117" t="b">
+      <c r="D117" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2791,7 +2805,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D118" t="b">
+      <c r="D118" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2811,7 +2825,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D119" t="b">
+      <c r="D119" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2831,7 +2845,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D120" t="b">
+      <c r="D120" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2851,7 +2865,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D121" t="b">
+      <c r="D121" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2871,7 +2885,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D122" t="b">
+      <c r="D122" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2891,7 +2905,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D123" t="b">
+      <c r="D123" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2911,7 +2925,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D124" t="b">
+      <c r="D124" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2931,7 +2945,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D125" t="b">
+      <c r="D125" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2951,7 +2965,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D126" t="b">
+      <c r="D126" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2971,7 +2985,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D127" t="b">
+      <c r="D127" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2991,7 +3005,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D128" t="b">
+      <c r="D128" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3011,7 +3025,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D129" t="b">
+      <c r="D129" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3031,7 +3045,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D130" t="b">
+      <c r="D130" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3051,7 +3065,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D131" t="b">
+      <c r="D131" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3071,7 +3085,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D132" t="b">
+      <c r="D132" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3091,7 +3105,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D133" t="b">
+      <c r="D133" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3111,7 +3125,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D134" t="b">
+      <c r="D134" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3131,7 +3145,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D135" t="b">
+      <c r="D135" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3151,7 +3165,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D136" t="b">
+      <c r="D136" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3171,7 +3185,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D137" t="b">
+      <c r="D137" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3191,7 +3205,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D138" t="b">
+      <c r="D138" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3211,7 +3225,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D139" t="b">
+      <c r="D139" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3223,7 +3237,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -3231,8 +3245,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D140" t="b">
-        <v>0</v>
+      <c r="D140" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -3251,7 +3265,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D141" t="b">
+      <c r="D141" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3271,7 +3285,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D142" t="b">
+      <c r="D142" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3291,7 +3305,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D143" t="b">
+      <c r="D143" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3311,7 +3325,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D144" t="b">
+      <c r="D144" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3331,7 +3345,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D145" t="b">
+      <c r="D145" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3351,7 +3365,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D146" t="b">
+      <c r="D146" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3371,7 +3385,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D147" t="b">
+      <c r="D147" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3391,7 +3405,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D148" t="b">
+      <c r="D148" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3411,7 +3425,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D149" t="b">
+      <c r="D149" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3431,7 +3445,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D150" t="b">
+      <c r="D150" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3451,7 +3465,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D151" t="b">
+      <c r="D151" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3471,7 +3485,7 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D152" t="b">
+      <c r="D152" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3491,7 +3505,7 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D153" t="b">
+      <c r="D153" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3511,8 +3525,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D154" t="b">
-        <v>0</v>
+      <c r="D154" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -3531,7 +3545,7 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D155" t="b">
+      <c r="D155" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3551,8 +3565,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D156" t="b">
-        <v>0</v>
+      <c r="D156" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -3571,8 +3585,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D157" t="b">
-        <v>0</v>
+      <c r="D157" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -3591,8 +3605,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D158" t="b">
-        <v>0</v>
+      <c r="D158" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -3611,8 +3625,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D159" t="b">
-        <v>0</v>
+      <c r="D159" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -3631,8 +3645,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D160" t="b">
-        <v>0</v>
+      <c r="D160" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -3651,8 +3665,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D161" t="b">
-        <v>0</v>
+      <c r="D161" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -3671,7 +3685,7 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D162" t="b">
+      <c r="D162" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3691,8 +3705,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D163" t="b">
-        <v>0</v>
+      <c r="D163" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -3711,8 +3725,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D164" t="b">
-        <v>0</v>
+      <c r="D164" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -3731,8 +3745,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D165" t="b">
-        <v>0</v>
+      <c r="D165" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -3751,8 +3765,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D166" t="b">
-        <v>0</v>
+      <c r="D166" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -3771,7 +3785,7 @@
           <t xml:space="preserve">negatif </t>
         </is>
       </c>
-      <c r="D167" t="b">
+      <c r="D167" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3791,8 +3805,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D168" t="b">
-        <v>0</v>
+      <c r="D168" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -3811,8 +3825,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D169" t="b">
-        <v>0</v>
+      <c r="D169" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -3831,7 +3845,7 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D170" t="b">
+      <c r="D170" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3851,8 +3865,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D171" t="b">
-        <v>0</v>
+      <c r="D171" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -3871,8 +3885,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D172" t="b">
-        <v>0</v>
+      <c r="D172" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -3891,8 +3905,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D173" t="b">
-        <v>0</v>
+      <c r="D173" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -3911,8 +3925,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D174" t="b">
-        <v>0</v>
+      <c r="D174" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -3931,8 +3945,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D175" t="b">
-        <v>0</v>
+      <c r="D175" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -3951,8 +3965,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D176" t="b">
-        <v>0</v>
+      <c r="D176" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -3971,8 +3985,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D177" t="b">
-        <v>0</v>
+      <c r="D177" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -3991,7 +4005,7 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D178" t="b">
+      <c r="D178" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4011,8 +4025,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D179" t="b">
-        <v>0</v>
+      <c r="D179" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -4031,8 +4045,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D180" t="b">
-        <v>0</v>
+      <c r="D180" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -4051,8 +4065,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D181" t="b">
-        <v>0</v>
+      <c r="D181" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -4071,8 +4085,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D182" t="b">
-        <v>0</v>
+      <c r="D182" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -4091,7 +4105,7 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D183" t="b">
+      <c r="D183" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4111,8 +4125,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D184" t="b">
-        <v>0</v>
+      <c r="D184" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -4131,8 +4145,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D185" t="b">
-        <v>0</v>
+      <c r="D185" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -4151,8 +4165,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D186" t="b">
-        <v>0</v>
+      <c r="D186" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -4171,7 +4185,7 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D187" t="b">
+      <c r="D187" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4191,8 +4205,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D188" t="b">
-        <v>0</v>
+      <c r="D188" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -4211,8 +4225,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D189" t="b">
-        <v>0</v>
+      <c r="D189" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -4231,7 +4245,7 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D190" t="b">
+      <c r="D190" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4251,8 +4265,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D191" t="b">
-        <v>0</v>
+      <c r="D191" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -4271,8 +4285,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D192" t="b">
-        <v>0</v>
+      <c r="D192" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -4291,8 +4305,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D193" t="b">
-        <v>0</v>
+      <c r="D193" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -4311,8 +4325,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D194" t="b">
-        <v>0</v>
+      <c r="D194" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -4331,8 +4345,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D195" t="b">
-        <v>0</v>
+      <c r="D195" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -4351,7 +4365,7 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D196" t="b">
+      <c r="D196" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4371,7 +4385,7 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D197" t="b">
+      <c r="D197" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4391,8 +4405,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D198" t="b">
-        <v>0</v>
+      <c r="D198" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -4411,8 +4425,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D199" t="b">
-        <v>0</v>
+      <c r="D199" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -4431,8 +4445,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D200" t="b">
-        <v>0</v>
+      <c r="D200" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -4451,7 +4465,7 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D201" t="b">
+      <c r="D201" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4471,7 +4485,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D202" t="b">
+      <c r="D202" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4491,7 +4505,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D203" t="b">
+      <c r="D203" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4511,7 +4525,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D204" t="b">
+      <c r="D204" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4531,7 +4545,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D205" t="b">
+      <c r="D205" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4551,7 +4565,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D206" t="b">
+      <c r="D206" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4571,7 +4585,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D207" t="b">
+      <c r="D207" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4591,7 +4605,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D208" t="b">
+      <c r="D208" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4611,7 +4625,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D209" t="b">
+      <c r="D209" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4631,7 +4645,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D210" t="b">
+      <c r="D210" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4651,7 +4665,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D211" t="b">
+      <c r="D211" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4671,7 +4685,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D212" t="b">
+      <c r="D212" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4691,7 +4705,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D213" t="b">
+      <c r="D213" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4711,7 +4725,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D214" t="b">
+      <c r="D214" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4731,7 +4745,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D215" t="b">
+      <c r="D215" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4751,7 +4765,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D216" t="b">
+      <c r="D216" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4771,7 +4785,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D217" t="b">
+      <c r="D217" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4791,7 +4805,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D218" t="b">
+      <c r="D218" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4811,7 +4825,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D219" t="b">
+      <c r="D219" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4831,7 +4845,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D220" t="b">
+      <c r="D220" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4851,7 +4865,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D221" t="b">
+      <c r="D221" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4871,7 +4885,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D222" t="b">
+      <c r="D222" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4891,7 +4905,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D223" t="b">
+      <c r="D223" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4911,7 +4925,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D224" t="b">
+      <c r="D224" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4931,7 +4945,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D225" t="b">
+      <c r="D225" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4951,7 +4965,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D226" t="b">
+      <c r="D226" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4971,7 +4985,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D227" t="b">
+      <c r="D227" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4991,7 +5005,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D228" t="b">
+      <c r="D228" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5011,7 +5025,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D229" t="b">
+      <c r="D229" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5031,7 +5045,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D230" t="b">
+      <c r="D230" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5051,7 +5065,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D231" t="b">
+      <c r="D231" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5071,7 +5085,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D232" t="b">
+      <c r="D232" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5091,7 +5105,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D233" t="b">
+      <c r="D233" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5111,7 +5125,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D234" t="b">
+      <c r="D234" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5131,7 +5145,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D235" t="b">
+      <c r="D235" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5151,7 +5165,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D236" t="b">
+      <c r="D236" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5171,7 +5185,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D237" t="b">
+      <c r="D237" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5183,7 +5197,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -5191,8 +5205,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D238" t="b">
-        <v>0</v>
+      <c r="D238" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -5211,7 +5225,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D239" t="b">
+      <c r="D239" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5231,7 +5245,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D240" t="b">
+      <c r="D240" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5251,7 +5265,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D241" t="b">
+      <c r="D241" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5271,7 +5285,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D242" t="b">
+      <c r="D242" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5291,7 +5305,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D243" t="b">
+      <c r="D243" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5311,7 +5325,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D244" t="b">
+      <c r="D244" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5331,7 +5345,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D245" t="b">
+      <c r="D245" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5351,7 +5365,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D246" t="b">
+      <c r="D246" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5371,7 +5385,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D247" t="b">
+      <c r="D247" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5391,7 +5405,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D248" t="b">
+      <c r="D248" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5411,7 +5425,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D249" t="b">
+      <c r="D249" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5431,7 +5445,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D250" t="b">
+      <c r="D250" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5451,7 +5465,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D251" t="b">
+      <c r="D251" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -5471,8 +5485,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D252" t="b">
-        <v>0</v>
+      <c r="D252" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -5491,8 +5505,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D253" t="b">
-        <v>0</v>
+      <c r="D253" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -5511,8 +5525,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D254" t="b">
-        <v>0</v>
+      <c r="D254" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -5531,7 +5545,7 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D255" t="b">
+      <c r="D255" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5551,7 +5565,7 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D256" t="b">
+      <c r="D256" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5571,8 +5585,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D257" t="b">
-        <v>0</v>
+      <c r="D257" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -5591,8 +5605,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D258" t="b">
-        <v>0</v>
+      <c r="D258" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -5611,8 +5625,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D259" t="b">
-        <v>0</v>
+      <c r="D259" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -5631,8 +5645,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D260" t="b">
-        <v>0</v>
+      <c r="D260" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -5651,8 +5665,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D261" t="b">
-        <v>0</v>
+      <c r="D261" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -5671,8 +5685,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D262" t="b">
-        <v>0</v>
+      <c r="D262" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -5691,8 +5705,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D263" t="b">
-        <v>0</v>
+      <c r="D263" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="264">
@@ -5711,8 +5725,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D264" t="b">
-        <v>0</v>
+      <c r="D264" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -5731,8 +5745,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D265" t="b">
-        <v>0</v>
+      <c r="D265" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -5751,8 +5765,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D266" t="b">
-        <v>0</v>
+      <c r="D266" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -5771,8 +5785,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D267" t="b">
-        <v>0</v>
+      <c r="D267" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -5791,7 +5805,7 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D268" t="b">
+      <c r="D268" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5811,8 +5825,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D269" t="b">
-        <v>0</v>
+      <c r="D269" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -5831,8 +5845,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D270" t="b">
-        <v>0</v>
+      <c r="D270" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -5851,7 +5865,7 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D271" t="b">
+      <c r="D271" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5871,7 +5885,7 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D272" t="b">
+      <c r="D272" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5891,8 +5905,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D273" t="b">
-        <v>0</v>
+      <c r="D273" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="274">
@@ -5911,7 +5925,7 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D274" t="b">
+      <c r="D274" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5931,8 +5945,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D275" t="b">
-        <v>0</v>
+      <c r="D275" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="276">
@@ -5951,8 +5965,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D276" t="b">
-        <v>0</v>
+      <c r="D276" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -5971,8 +5985,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D277" t="b">
-        <v>0</v>
+      <c r="D277" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -5991,8 +6005,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D278" t="b">
-        <v>0</v>
+      <c r="D278" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -6011,7 +6025,7 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D279" t="b">
+      <c r="D279" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6031,7 +6045,7 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D280" t="b">
+      <c r="D280" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6051,7 +6065,7 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D281" t="b">
+      <c r="D281" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6071,7 +6085,7 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D282" t="b">
+      <c r="D282" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6091,7 +6105,7 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D283" t="b">
+      <c r="D283" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6111,7 +6125,7 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D284" t="b">
+      <c r="D284" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6131,8 +6145,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D285" t="b">
-        <v>0</v>
+      <c r="D285" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -6151,7 +6165,7 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D286" t="b">
+      <c r="D286" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6171,7 +6185,7 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D287" t="b">
+      <c r="D287" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6191,8 +6205,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D288" t="b">
-        <v>0</v>
+      <c r="D288" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -6211,7 +6225,7 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D289" t="b">
+      <c r="D289" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6231,7 +6245,7 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D290" t="b">
+      <c r="D290" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6251,8 +6265,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D291" t="b">
-        <v>0</v>
+      <c r="D291" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -6271,8 +6285,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D292" t="b">
-        <v>0</v>
+      <c r="D292" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -6291,8 +6305,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D293" t="b">
-        <v>0</v>
+      <c r="D293" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="294">
@@ -6311,8 +6325,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D294" t="b">
-        <v>0</v>
+      <c r="D294" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="295">
@@ -6331,7 +6345,7 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D295" t="b">
+      <c r="D295" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6351,8 +6365,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D296" t="b">
-        <v>0</v>
+      <c r="D296" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="297">
@@ -6371,8 +6385,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D297" t="b">
-        <v>0</v>
+      <c r="D297" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="298">
@@ -6391,8 +6405,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D298" t="b">
-        <v>0</v>
+      <c r="D298" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="299">
@@ -6411,8 +6425,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D299" t="b">
-        <v>0</v>
+      <c r="D299" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="300">
@@ -6431,8 +6445,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D300" t="b">
-        <v>0</v>
+      <c r="D300" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="301">
@@ -6451,8 +6465,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D301" t="b">
-        <v>0</v>
+      <c r="D301" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="302">
@@ -6471,8 +6485,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D302" t="b">
-        <v>0</v>
+      <c r="D302" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="303">
@@ -6491,8 +6505,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D303" t="b">
-        <v>0</v>
+      <c r="D303" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="304">
@@ -6511,8 +6525,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D304" t="b">
-        <v>0</v>
+      <c r="D304" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="305">
@@ -6531,8 +6545,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D305" t="b">
-        <v>0</v>
+      <c r="D305" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="306">
@@ -6551,8 +6565,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D306" t="b">
-        <v>0</v>
+      <c r="D306" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="307">
@@ -6571,8 +6585,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D307" t="b">
-        <v>0</v>
+      <c r="D307" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="308">
@@ -6591,8 +6605,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D308" t="b">
-        <v>0</v>
+      <c r="D308" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="309">
@@ -6611,8 +6625,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D309" t="b">
-        <v>0</v>
+      <c r="D309" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="310">
@@ -6631,8 +6645,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D310" t="b">
-        <v>0</v>
+      <c r="D310" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="311">
@@ -6651,7 +6665,7 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D311" t="b">
+      <c r="D311" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6671,8 +6685,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D312" t="b">
-        <v>0</v>
+      <c r="D312" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="313">
@@ -6691,8 +6705,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D313" t="b">
-        <v>0</v>
+      <c r="D313" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="314">
@@ -6711,7 +6725,7 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D314" t="b">
+      <c r="D314" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6731,8 +6745,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D315" t="b">
-        <v>0</v>
+      <c r="D315" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="316">
@@ -6751,8 +6765,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D316" t="b">
-        <v>0</v>
+      <c r="D316" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="317">
@@ -6771,7 +6785,7 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D317" t="b">
+      <c r="D317" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6791,8 +6805,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D318" t="b">
-        <v>0</v>
+      <c r="D318" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="319">
@@ -6811,8 +6825,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D319" t="b">
-        <v>0</v>
+      <c r="D319" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="320">
@@ -6831,7 +6845,7 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D320" t="b">
+      <c r="D320" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -6851,8 +6865,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D321" t="b">
-        <v>0</v>
+      <c r="D321" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="322">
@@ -6871,8 +6885,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D322" t="b">
-        <v>0</v>
+      <c r="D322" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="323">
@@ -6891,8 +6905,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D323" t="b">
-        <v>0</v>
+      <c r="D323" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="324">
@@ -6911,8 +6925,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D324" t="b">
-        <v>0</v>
+      <c r="D324" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="325">
@@ -6931,8 +6945,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D325" t="b">
-        <v>0</v>
+      <c r="D325" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="326">
@@ -6951,8 +6965,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D326" t="b">
-        <v>0</v>
+      <c r="D326" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="327">
@@ -6971,8 +6985,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D327" t="b">
-        <v>0</v>
+      <c r="D327" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="328">
@@ -6991,8 +7005,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D328" t="b">
-        <v>0</v>
+      <c r="D328" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="329">
@@ -7011,7 +7025,7 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D329" t="b">
+      <c r="D329" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7031,8 +7045,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D330" t="b">
-        <v>0</v>
+      <c r="D330" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="331">
@@ -7051,8 +7065,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D331" t="b">
-        <v>0</v>
+      <c r="D331" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="332">
@@ -7071,7 +7085,7 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D332" t="b">
+      <c r="D332" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7091,8 +7105,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D333" t="b">
-        <v>0</v>
+      <c r="D333" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="334">
@@ -7111,8 +7125,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D334" t="b">
-        <v>0</v>
+      <c r="D334" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="335">
@@ -7131,8 +7145,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D335" t="b">
-        <v>0</v>
+      <c r="D335" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="336">
@@ -7151,8 +7165,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D336" t="b">
-        <v>0</v>
+      <c r="D336" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="337">
@@ -7171,7 +7185,7 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D337" t="b">
+      <c r="D337" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7191,8 +7205,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D338" t="b">
-        <v>0</v>
+      <c r="D338" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="339">
@@ -7211,8 +7225,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D339" t="b">
-        <v>0</v>
+      <c r="D339" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="340">
@@ -7231,7 +7245,7 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D340" t="b">
+      <c r="D340" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7251,8 +7265,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D341" t="b">
-        <v>0</v>
+      <c r="D341" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="342">
@@ -7271,8 +7285,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D342" t="b">
-        <v>0</v>
+      <c r="D342" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="343">
@@ -7291,7 +7305,7 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D343" t="b">
+      <c r="D343" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7311,8 +7325,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D344" t="b">
-        <v>0</v>
+      <c r="D344" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="345">
@@ -7331,8 +7345,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D345" t="b">
-        <v>0</v>
+      <c r="D345" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="346">
@@ -7351,8 +7365,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D346" t="b">
-        <v>0</v>
+      <c r="D346" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="347">
@@ -7371,8 +7385,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D347" t="b">
-        <v>0</v>
+      <c r="D347" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="348">
@@ -7391,8 +7405,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D348" t="b">
-        <v>0</v>
+      <c r="D348" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="349">
@@ -7411,8 +7425,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D349" t="b">
-        <v>0</v>
+      <c r="D349" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="350">
@@ -7431,8 +7445,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D350" t="b">
-        <v>0</v>
+      <c r="D350" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="351">
@@ -7451,8 +7465,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D351" t="b">
-        <v>0</v>
+      <c r="D351" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="352">
@@ -7471,8 +7485,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D352" t="b">
-        <v>0</v>
+      <c r="D352" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="353">
@@ -7491,8 +7505,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D353" t="b">
-        <v>0</v>
+      <c r="D353" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="354">
@@ -7511,8 +7525,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D354" t="b">
-        <v>0</v>
+      <c r="D354" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="355">
@@ -7531,8 +7545,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D355" t="b">
-        <v>0</v>
+      <c r="D355" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="356">
@@ -7551,7 +7565,7 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D356" t="b">
+      <c r="D356" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7571,7 +7585,7 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D357" t="b">
+      <c r="D357" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7591,8 +7605,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D358" t="b">
-        <v>0</v>
+      <c r="D358" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="359">
@@ -7611,7 +7625,7 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D359" t="b">
+      <c r="D359" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7631,8 +7645,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D360" t="b">
-        <v>0</v>
+      <c r="D360" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="361">
@@ -7651,8 +7665,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D361" t="b">
-        <v>0</v>
+      <c r="D361" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="362">
@@ -7671,7 +7685,7 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D362" t="b">
+      <c r="D362" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7691,8 +7705,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D363" t="b">
-        <v>0</v>
+      <c r="D363" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="364">
@@ -7711,8 +7725,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D364" t="b">
-        <v>0</v>
+      <c r="D364" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="365">
@@ -7731,8 +7745,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D365" t="b">
-        <v>0</v>
+      <c r="D365" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="366">
@@ -7751,7 +7765,7 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D366" t="b">
+      <c r="D366" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7771,8 +7785,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D367" t="b">
-        <v>0</v>
+      <c r="D367" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="368">
@@ -7791,8 +7805,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D368" t="b">
-        <v>0</v>
+      <c r="D368" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="369">
@@ -7811,8 +7825,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D369" t="b">
-        <v>0</v>
+      <c r="D369" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="370">
@@ -7831,8 +7845,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D370" t="b">
-        <v>0</v>
+      <c r="D370" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="371">
@@ -7851,8 +7865,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D371" t="b">
-        <v>0</v>
+      <c r="D371" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="372">
@@ -7871,7 +7885,7 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D372" t="b">
+      <c r="D372" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7891,8 +7905,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D373" t="b">
-        <v>0</v>
+      <c r="D373" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="374">
@@ -7911,8 +7925,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D374" t="b">
-        <v>0</v>
+      <c r="D374" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="375">
@@ -7931,8 +7945,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D375" t="b">
-        <v>0</v>
+      <c r="D375" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="376">
@@ -7951,8 +7965,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D376" t="b">
-        <v>0</v>
+      <c r="D376" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="377">
@@ -7971,7 +7985,7 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D377" t="b">
+      <c r="D377" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -7991,8 +8005,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D378" t="b">
-        <v>0</v>
+      <c r="D378" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="379">
@@ -8011,7 +8025,7 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D379" t="b">
+      <c r="D379" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8031,7 +8045,7 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D380" t="b">
+      <c r="D380" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8051,8 +8065,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D381" t="b">
-        <v>0</v>
+      <c r="D381" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="382">
@@ -8071,8 +8085,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D382" t="b">
-        <v>0</v>
+      <c r="D382" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="383">
@@ -8091,7 +8105,7 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D383" t="b">
+      <c r="D383" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8111,8 +8125,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D384" t="b">
-        <v>0</v>
+      <c r="D384" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="385">
@@ -8131,7 +8145,7 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D385" t="b">
+      <c r="D385" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8151,7 +8165,7 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D386" t="b">
+      <c r="D386" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8171,7 +8185,7 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D387" t="b">
+      <c r="D387" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8191,8 +8205,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D388" t="b">
-        <v>0</v>
+      <c r="D388" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="389">
@@ -8211,7 +8225,7 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D389" t="b">
+      <c r="D389" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8231,7 +8245,7 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D390" t="b">
+      <c r="D390" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8251,7 +8265,7 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D391" t="b">
+      <c r="D391" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8271,8 +8285,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D392" t="b">
-        <v>0</v>
+      <c r="D392" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="393">
@@ -8291,8 +8305,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D393" t="b">
-        <v>0</v>
+      <c r="D393" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="394">
@@ -8311,8 +8325,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D394" t="b">
-        <v>0</v>
+      <c r="D394" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="395">
@@ -8331,8 +8345,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D395" t="b">
-        <v>0</v>
+      <c r="D395" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="396">
@@ -8351,7 +8365,7 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D396" t="b">
+      <c r="D396" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8371,8 +8385,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D397" t="b">
-        <v>0</v>
+      <c r="D397" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="398">
@@ -8391,8 +8405,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D398" t="b">
-        <v>0</v>
+      <c r="D398" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="399">
@@ -8411,8 +8425,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D399" t="b">
-        <v>0</v>
+      <c r="D399" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="400">
@@ -8431,8 +8445,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D400" t="b">
-        <v>0</v>
+      <c r="D400" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="401">
@@ -8451,8 +8465,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D401" t="b">
-        <v>0</v>
+      <c r="D401" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="402">
@@ -8471,7 +8485,7 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D402" t="b">
+      <c r="D402" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8491,8 +8505,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D403" t="b">
-        <v>0</v>
+      <c r="D403" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="404">
@@ -8511,8 +8525,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D404" t="b">
-        <v>0</v>
+      <c r="D404" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="405">
@@ -8531,8 +8545,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D405" t="b">
-        <v>0</v>
+      <c r="D405" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="406">
@@ -8551,8 +8565,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D406" t="b">
-        <v>0</v>
+      <c r="D406" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="407">
@@ -8571,8 +8585,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D407" t="b">
-        <v>0</v>
+      <c r="D407" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="408">
@@ -8591,7 +8605,7 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D408" t="b">
+      <c r="D408" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8611,8 +8625,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D409" t="b">
-        <v>0</v>
+      <c r="D409" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="410">
@@ -8631,8 +8645,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D410" t="b">
-        <v>0</v>
+      <c r="D410" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="411">
@@ -8651,8 +8665,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D411" t="b">
-        <v>0</v>
+      <c r="D411" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="412">
@@ -8671,8 +8685,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D412" t="b">
-        <v>0</v>
+      <c r="D412" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="413">
@@ -8691,8 +8705,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D413" t="b">
-        <v>0</v>
+      <c r="D413" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="414">
@@ -8711,8 +8725,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D414" t="b">
-        <v>0</v>
+      <c r="D414" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="415">
@@ -8731,8 +8745,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D415" t="b">
-        <v>0</v>
+      <c r="D415" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="416">
@@ -8751,8 +8765,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D416" t="b">
-        <v>0</v>
+      <c r="D416" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="417">
@@ -8771,8 +8785,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D417" t="b">
-        <v>0</v>
+      <c r="D417" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="418">
@@ -8791,7 +8805,7 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D418" t="b">
+      <c r="D418" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8811,8 +8825,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D419" t="b">
-        <v>0</v>
+      <c r="D419" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="420">
@@ -8831,8 +8845,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D420" t="b">
-        <v>0</v>
+      <c r="D420" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="421">
@@ -8851,8 +8865,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D421" t="b">
-        <v>0</v>
+      <c r="D421" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="422">
@@ -8871,8 +8885,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D422" t="b">
-        <v>0</v>
+      <c r="D422" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="423">
@@ -8891,8 +8905,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D423" t="b">
-        <v>0</v>
+      <c r="D423" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="424">
@@ -8911,7 +8925,7 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D424" t="b">
+      <c r="D424" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8931,7 +8945,7 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D425" t="b">
+      <c r="D425" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8951,8 +8965,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D426" t="b">
-        <v>0</v>
+      <c r="D426" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="427">
@@ -8971,7 +8985,7 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D427" t="b">
+      <c r="D427" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -8991,7 +9005,7 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D428" t="b">
+      <c r="D428" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9011,7 +9025,7 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D429" t="b">
+      <c r="D429" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9031,8 +9045,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D430" t="b">
-        <v>0</v>
+      <c r="D430" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="431">
@@ -9051,7 +9065,7 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D431" t="b">
+      <c r="D431" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9071,8 +9085,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D432" t="b">
-        <v>0</v>
+      <c r="D432" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="433">
@@ -9091,7 +9105,7 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D433" t="b">
+      <c r="D433" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9111,7 +9125,7 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D434" t="b">
+      <c r="D434" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9131,8 +9145,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D435" t="b">
-        <v>0</v>
+      <c r="D435" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="436">
@@ -9151,8 +9165,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D436" t="b">
-        <v>0</v>
+      <c r="D436" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="437">
@@ -9171,7 +9185,7 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D437" t="b">
+      <c r="D437" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9191,8 +9205,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D438" t="b">
-        <v>0</v>
+      <c r="D438" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="439">
@@ -9211,7 +9225,7 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D439" t="b">
+      <c r="D439" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9231,7 +9245,7 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D440" t="b">
+      <c r="D440" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9251,8 +9265,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D441" t="b">
-        <v>0</v>
+      <c r="D441" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="442">
@@ -9271,8 +9285,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D442" t="b">
-        <v>0</v>
+      <c r="D442" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="443">
@@ -9291,7 +9305,7 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D443" t="b">
+      <c r="D443" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9303,7 +9317,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -9311,7 +9325,7 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D444" t="b">
+      <c r="D444" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9331,8 +9345,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D445" t="b">
-        <v>0</v>
+      <c r="D445" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="446">
@@ -9351,8 +9365,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D446" t="b">
-        <v>0</v>
+      <c r="D446" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="447">
@@ -9371,7 +9385,7 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D447" t="b">
+      <c r="D447" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9391,7 +9405,7 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D448" t="b">
+      <c r="D448" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9411,8 +9425,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D449" t="b">
-        <v>0</v>
+      <c r="D449" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="450">
@@ -9431,8 +9445,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D450" t="b">
-        <v>0</v>
+      <c r="D450" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="451">
@@ -9451,8 +9465,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D451" t="b">
-        <v>0</v>
+      <c r="D451" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="452">
@@ -9471,7 +9485,7 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D452" t="b">
+      <c r="D452" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9491,8 +9505,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D453" t="b">
-        <v>0</v>
+      <c r="D453" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="454">
@@ -9511,8 +9525,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D454" t="b">
-        <v>0</v>
+      <c r="D454" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="455">
@@ -9531,8 +9545,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D455" t="b">
-        <v>0</v>
+      <c r="D455" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="456">
@@ -9551,8 +9565,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D456" t="b">
-        <v>0</v>
+      <c r="D456" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="457">
@@ -9571,8 +9585,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D457" t="b">
-        <v>0</v>
+      <c r="D457" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="458">
@@ -9591,8 +9605,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D458" t="b">
-        <v>0</v>
+      <c r="D458" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="459">
@@ -9611,7 +9625,7 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D459" t="b">
+      <c r="D459" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9631,8 +9645,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D460" t="b">
-        <v>0</v>
+      <c r="D460" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="461">
@@ -9651,8 +9665,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D461" t="b">
-        <v>0</v>
+      <c r="D461" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="462">
@@ -9671,8 +9685,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D462" t="b">
-        <v>0</v>
+      <c r="D462" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="463">
@@ -9691,8 +9705,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D463" t="b">
-        <v>0</v>
+      <c r="D463" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="464">
@@ -9711,8 +9725,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D464" t="b">
-        <v>0</v>
+      <c r="D464" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="465">
@@ -9731,8 +9745,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D465" t="b">
-        <v>0</v>
+      <c r="D465" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="466">
@@ -9751,8 +9765,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D466" t="b">
-        <v>0</v>
+      <c r="D466" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="467">
@@ -9771,7 +9785,7 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D467" t="b">
+      <c r="D467" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9791,8 +9805,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D468" t="b">
-        <v>0</v>
+      <c r="D468" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="469">
@@ -9811,8 +9825,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D469" t="b">
-        <v>0</v>
+      <c r="D469" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="470">
@@ -9831,7 +9845,7 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D470" t="b">
+      <c r="D470" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9851,7 +9865,7 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D471" t="b">
+      <c r="D471" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9871,7 +9885,7 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D472" t="b">
+      <c r="D472" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9883,7 +9897,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -9891,8 +9905,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D473" t="b">
-        <v>0</v>
+      <c r="D473" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="474">
@@ -9911,8 +9925,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D474" t="b">
-        <v>0</v>
+      <c r="D474" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="475">
@@ -9931,8 +9945,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D475" t="b">
-        <v>0</v>
+      <c r="D475" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="476">
@@ -9951,7 +9965,7 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D476" t="b">
+      <c r="D476" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -9971,8 +9985,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D477" t="b">
-        <v>0</v>
+      <c r="D477" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="478">
@@ -9991,8 +10005,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D478" t="b">
-        <v>0</v>
+      <c r="D478" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="479">
@@ -10011,8 +10025,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D479" t="b">
-        <v>0</v>
+      <c r="D479" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="480">
@@ -10031,8 +10045,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D480" t="b">
-        <v>0</v>
+      <c r="D480" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="481">
@@ -10051,8 +10065,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D481" t="b">
-        <v>0</v>
+      <c r="D481" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="482">
@@ -10071,8 +10085,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D482" t="b">
-        <v>0</v>
+      <c r="D482" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="483">
@@ -10091,8 +10105,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D483" t="b">
-        <v>0</v>
+      <c r="D483" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="484">
@@ -10111,8 +10125,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D484" t="b">
-        <v>0</v>
+      <c r="D484" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="485">
@@ -10131,7 +10145,7 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D485" t="b">
+      <c r="D485" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10151,8 +10165,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D486" t="b">
-        <v>0</v>
+      <c r="D486" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="487">
@@ -10171,8 +10185,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D487" t="b">
-        <v>0</v>
+      <c r="D487" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="488">
@@ -10191,8 +10205,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D488" t="b">
-        <v>0</v>
+      <c r="D488" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="489">
@@ -10211,8 +10225,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D489" t="b">
-        <v>0</v>
+      <c r="D489" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="490">
@@ -10231,8 +10245,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D490" t="b">
-        <v>0</v>
+      <c r="D490" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="491">
@@ -10251,7 +10265,7 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D491" t="b">
+      <c r="D491" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10271,7 +10285,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D492" t="b">
+      <c r="D492" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10291,7 +10305,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D493" t="b">
+      <c r="D493" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10311,7 +10325,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D494" t="b">
+      <c r="D494" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10331,7 +10345,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D495" t="b">
+      <c r="D495" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10351,7 +10365,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D496" t="b">
+      <c r="D496" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10371,7 +10385,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D497" t="b">
+      <c r="D497" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10391,7 +10405,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D498" t="b">
+      <c r="D498" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10411,7 +10425,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D499" t="b">
+      <c r="D499" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10431,7 +10445,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D500" t="b">
+      <c r="D500" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10451,7 +10465,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D501" t="b">
+      <c r="D501" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10471,7 +10485,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D502" t="b">
+      <c r="D502" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10491,7 +10505,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D503" t="b">
+      <c r="D503" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10511,7 +10525,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D504" t="b">
+      <c r="D504" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10531,7 +10545,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D505" t="b">
+      <c r="D505" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10551,7 +10565,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D506" t="b">
+      <c r="D506" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10571,7 +10585,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D507" t="b">
+      <c r="D507" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10591,7 +10605,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D508" t="b">
+      <c r="D508" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10611,7 +10625,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D509" t="b">
+      <c r="D509" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10631,7 +10645,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D510" t="b">
+      <c r="D510" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10651,7 +10665,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D511" t="b">
+      <c r="D511" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10671,7 +10685,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D512" t="b">
+      <c r="D512" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10691,7 +10705,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D513" t="b">
+      <c r="D513" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10711,7 +10725,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D514" t="b">
+      <c r="D514" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10731,7 +10745,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D515" t="b">
+      <c r="D515" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10751,7 +10765,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D516" t="b">
+      <c r="D516" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10771,7 +10785,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D517" t="b">
+      <c r="D517" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10791,7 +10805,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D518" t="b">
+      <c r="D518" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10811,7 +10825,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D519" t="b">
+      <c r="D519" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10831,7 +10845,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D520" t="b">
+      <c r="D520" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10851,7 +10865,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D521" t="b">
+      <c r="D521" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10871,7 +10885,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D522" t="b">
+      <c r="D522" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10891,7 +10905,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D523" t="b">
+      <c r="D523" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10911,7 +10925,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D524" t="b">
+      <c r="D524" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10931,7 +10945,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D525" t="b">
+      <c r="D525" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10951,7 +10965,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D526" t="b">
+      <c r="D526" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10971,7 +10985,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D527" t="b">
+      <c r="D527" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10991,7 +11005,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D528" t="b">
+      <c r="D528" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11011,7 +11025,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D529" t="b">
+      <c r="D529" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11031,7 +11045,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D530" t="b">
+      <c r="D530" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11051,7 +11065,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D531" t="b">
+      <c r="D531" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11071,7 +11085,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D532" t="b">
+      <c r="D532" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11091,7 +11105,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D533" t="b">
+      <c r="D533" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11111,7 +11125,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D534" t="b">
+      <c r="D534" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11131,7 +11145,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D535" t="b">
+      <c r="D535" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11151,7 +11165,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D536" t="b">
+      <c r="D536" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11171,7 +11185,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D537" t="b">
+      <c r="D537" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11191,7 +11205,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D538" t="b">
+      <c r="D538" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11211,7 +11225,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D539" t="b">
+      <c r="D539" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11231,7 +11245,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D540" t="b">
+      <c r="D540" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11251,7 +11265,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D541" t="b">
+      <c r="D541" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11271,7 +11285,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D542" t="b">
+      <c r="D542" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11291,7 +11305,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D543" t="b">
+      <c r="D543" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11311,7 +11325,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D544" t="b">
+      <c r="D544" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11331,7 +11345,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D545" t="b">
+      <c r="D545" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11351,7 +11365,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D546" t="b">
+      <c r="D546" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11371,7 +11385,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D547" t="b">
+      <c r="D547" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11391,7 +11405,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D548" t="b">
+      <c r="D548" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11411,7 +11425,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D549" t="b">
+      <c r="D549" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11431,7 +11445,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D550" t="b">
+      <c r="D550" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11451,7 +11465,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D551" t="b">
+      <c r="D551" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11471,7 +11485,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D552" t="b">
+      <c r="D552" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11491,7 +11505,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D553" t="b">
+      <c r="D553" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11511,7 +11525,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D554" t="b">
+      <c r="D554" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11531,7 +11545,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D555" t="b">
+      <c r="D555" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11551,7 +11565,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D556" t="b">
+      <c r="D556" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11571,7 +11585,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D557" t="b">
+      <c r="D557" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11591,7 +11605,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D558" t="b">
+      <c r="D558" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11611,7 +11625,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D559" t="b">
+      <c r="D559" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11631,7 +11645,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D560" t="b">
+      <c r="D560" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11651,7 +11665,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D561" t="b">
+      <c r="D561" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11671,7 +11685,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D562" t="b">
+      <c r="D562" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11691,7 +11705,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D563" t="b">
+      <c r="D563" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11711,7 +11725,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D564" t="b">
+      <c r="D564" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11731,7 +11745,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D565" t="b">
+      <c r="D565" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11751,7 +11765,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D566" t="b">
+      <c r="D566" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11771,7 +11785,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D567" t="b">
+      <c r="D567" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11791,7 +11805,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D568" t="b">
+      <c r="D568" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11811,7 +11825,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D569" t="b">
+      <c r="D569" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11831,7 +11845,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D570" t="b">
+      <c r="D570" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11851,7 +11865,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D571" t="b">
+      <c r="D571" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11871,7 +11885,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D572" t="b">
+      <c r="D572" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11891,7 +11905,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D573" t="b">
+      <c r="D573" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11911,7 +11925,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D574" t="b">
+      <c r="D574" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11931,7 +11945,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D575" t="b">
+      <c r="D575" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11951,7 +11965,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D576" t="b">
+      <c r="D576" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -11971,7 +11985,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D577" t="b">
+      <c r="D577" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -11991,7 +12005,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D578" t="b">
+      <c r="D578" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12011,7 +12025,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D579" t="b">
+      <c r="D579" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -12031,7 +12045,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D580" t="b">
+      <c r="D580" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -12051,7 +12065,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D581" t="b">
+      <c r="D581" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -12071,7 +12085,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D582" t="b">
+      <c r="D582" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12091,7 +12105,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D583" t="b">
+      <c r="D583" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12111,7 +12125,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D584" t="b">
+      <c r="D584" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12131,7 +12145,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D585" t="b">
+      <c r="D585" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12143,7 +12157,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
@@ -12151,8 +12165,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D586" t="b">
-        <v>0</v>
+      <c r="D586" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="587">
@@ -12171,7 +12185,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D587" t="b">
+      <c r="D587" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12191,7 +12205,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D588" t="b">
+      <c r="D588" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12211,7 +12225,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D589" t="b">
+      <c r="D589" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -12231,7 +12245,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D590" t="b">
+      <c r="D590" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -12251,7 +12265,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D591" t="b">
+      <c r="D591" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -12271,7 +12285,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D592" t="b">
+      <c r="D592" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12291,7 +12305,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D593" t="b">
+      <c r="D593" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12311,7 +12325,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D594" t="b">
+      <c r="D594" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -12331,7 +12345,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D595" t="b">
+      <c r="D595" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12351,7 +12365,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D596" t="b">
+      <c r="D596" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -12371,7 +12385,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D597" t="b">
+      <c r="D597" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12391,7 +12405,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D598" t="b">
+      <c r="D598" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -12411,7 +12425,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D599" t="b">
+      <c r="D599" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -12431,7 +12445,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D600" t="b">
+      <c r="D600" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -12451,7 +12465,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D601" t="b">
+      <c r="D601" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -12471,7 +12485,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D602" t="b">
+      <c r="D602" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -12491,7 +12505,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D603" t="b">
+      <c r="D603" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -12511,7 +12525,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D604" t="b">
+      <c r="D604" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -12531,7 +12545,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D605" t="b">
+      <c r="D605" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -12551,7 +12565,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D606" t="b">
+      <c r="D606" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -12571,7 +12585,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D607" t="b">
+      <c r="D607" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -12591,7 +12605,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D608" t="b">
+      <c r="D608" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -12611,7 +12625,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D609" t="b">
+      <c r="D609" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12631,7 +12645,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D610" t="b">
+      <c r="D610" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -12651,7 +12665,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D611" t="b">
+      <c r="D611" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -12671,7 +12685,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D612" t="b">
+      <c r="D612" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -12691,7 +12705,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D613" t="b">
+      <c r="D613" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -12711,7 +12725,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D614" t="b">
+      <c r="D614" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -12731,7 +12745,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D615" t="b">
+      <c r="D615" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -12751,7 +12765,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D616" t="b">
+      <c r="D616" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -12771,7 +12785,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D617" t="b">
+      <c r="D617" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12791,7 +12805,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D618" t="b">
+      <c r="D618" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12811,7 +12825,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D619" t="b">
+      <c r="D619" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -12831,7 +12845,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D620" t="b">
+      <c r="D620" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -12851,7 +12865,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D621" t="b">
+      <c r="D621" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -12871,7 +12885,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D622" t="b">
+      <c r="D622" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12891,7 +12905,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D623" t="b">
+      <c r="D623" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -12911,7 +12925,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D624" t="b">
+      <c r="D624" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12931,7 +12945,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D625" t="b">
+      <c r="D625" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -12951,7 +12965,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D626" t="b">
+      <c r="D626" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -12971,7 +12985,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D627" t="b">
+      <c r="D627" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -12991,7 +13005,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D628" t="b">
+      <c r="D628" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -13011,7 +13025,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D629" t="b">
+      <c r="D629" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -13031,7 +13045,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D630" t="b">
+      <c r="D630" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13051,7 +13065,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D631" t="b">
+      <c r="D631" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -13071,7 +13085,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D632" t="b">
+      <c r="D632" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13091,7 +13105,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D633" t="b">
+      <c r="D633" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -13111,7 +13125,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D634" t="b">
+      <c r="D634" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13131,7 +13145,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D635" t="b">
+      <c r="D635" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -13151,7 +13165,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D636" t="b">
+      <c r="D636" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -13171,7 +13185,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D637" t="b">
+      <c r="D637" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -13191,7 +13205,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D638" t="b">
+      <c r="D638" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -13211,7 +13225,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D639" t="b">
+      <c r="D639" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13231,7 +13245,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D640" t="b">
+      <c r="D640" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13251,7 +13265,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D641" t="b">
+      <c r="D641" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -13271,7 +13285,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D642" t="b">
+      <c r="D642" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -13291,7 +13305,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D643" t="b">
+      <c r="D643" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -13311,7 +13325,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D644" t="b">
+      <c r="D644" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -13331,7 +13345,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D645" t="b">
+      <c r="D645" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -13351,7 +13365,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D646" t="b">
+      <c r="D646" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -13371,7 +13385,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D647" t="b">
+      <c r="D647" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -13391,7 +13405,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D648" t="b">
+      <c r="D648" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13411,7 +13425,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D649" t="b">
+      <c r="D649" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -13431,7 +13445,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D650" t="b">
+      <c r="D650" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -13451,7 +13465,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D651" t="b">
+      <c r="D651" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -13471,7 +13485,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D652" t="b">
+      <c r="D652" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -13491,7 +13505,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D653" t="b">
+      <c r="D653" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13511,7 +13525,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D654" t="b">
+      <c r="D654" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -13531,7 +13545,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D655" t="b">
+      <c r="D655" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -13551,7 +13565,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D656" t="b">
+      <c r="D656" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -13571,7 +13585,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D657" t="b">
+      <c r="D657" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13591,7 +13605,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D658" t="b">
+      <c r="D658" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -13611,7 +13625,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D659" t="b">
+      <c r="D659" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -13631,7 +13645,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D660" t="b">
+      <c r="D660" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13651,7 +13665,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D661" t="b">
+      <c r="D661" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -13671,7 +13685,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D662" t="b">
+      <c r="D662" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13691,7 +13705,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D663" t="b">
+      <c r="D663" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -13711,7 +13725,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D664" t="b">
+      <c r="D664" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -13731,7 +13745,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D665" t="b">
+      <c r="D665" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -13751,7 +13765,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D666" t="b">
+      <c r="D666" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13771,7 +13785,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D667" t="b">
+      <c r="D667" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -13791,7 +13805,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D668" t="b">
+      <c r="D668" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -13811,7 +13825,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D669" t="b">
+      <c r="D669" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13831,7 +13845,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D670" t="b">
+      <c r="D670" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13851,7 +13865,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D671" t="b">
+      <c r="D671" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -13871,7 +13885,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D672" t="b">
+      <c r="D672" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -13891,7 +13905,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D673" t="b">
+      <c r="D673" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -13911,7 +13925,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D674" t="b">
+      <c r="D674" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -13931,7 +13945,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D675" t="b">
+      <c r="D675" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -13951,7 +13965,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D676" t="b">
+      <c r="D676" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -13971,7 +13985,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D677" t="b">
+      <c r="D677" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -13991,7 +14005,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D678" t="b">
+      <c r="D678" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14011,7 +14025,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D679" t="b">
+      <c r="D679" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -14031,7 +14045,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D680" t="b">
+      <c r="D680" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14051,7 +14065,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D681" t="b">
+      <c r="D681" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14071,7 +14085,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D682" t="b">
+      <c r="D682" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14091,7 +14105,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D683" t="b">
+      <c r="D683" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14111,7 +14125,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D684" t="b">
+      <c r="D684" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -14131,7 +14145,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D685" t="b">
+      <c r="D685" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -14151,7 +14165,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D686" t="b">
+      <c r="D686" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -14171,7 +14185,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D687" t="b">
+      <c r="D687" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14191,7 +14205,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D688" t="b">
+      <c r="D688" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14211,7 +14225,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D689" t="b">
+      <c r="D689" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -14231,7 +14245,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D690" t="b">
+      <c r="D690" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -14251,7 +14265,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D691" t="b">
+      <c r="D691" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14271,7 +14285,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D692" t="b">
+      <c r="D692" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14291,7 +14305,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D693" t="b">
+      <c r="D693" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14311,7 +14325,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D694" t="b">
+      <c r="D694" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14331,7 +14345,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D695" t="b">
+      <c r="D695" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14351,7 +14365,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D696" t="b">
+      <c r="D696" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14371,7 +14385,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D697" t="b">
+      <c r="D697" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -14391,7 +14405,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D698" t="b">
+      <c r="D698" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14411,7 +14425,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D699" t="b">
+      <c r="D699" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14431,7 +14445,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D700" t="b">
+      <c r="D700" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14451,7 +14465,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D701" t="b">
+      <c r="D701" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -14471,7 +14485,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D702" t="b">
+      <c r="D702" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14491,7 +14505,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D703" t="b">
+      <c r="D703" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -14511,7 +14525,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D704" t="b">
+      <c r="D704" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14531,7 +14545,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D705" t="b">
+      <c r="D705" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -14551,7 +14565,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D706" t="b">
+      <c r="D706" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -14571,7 +14585,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D707" t="b">
+      <c r="D707" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -14591,7 +14605,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D708" t="b">
+      <c r="D708" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14611,7 +14625,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D709" t="b">
+      <c r="D709" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14631,7 +14645,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D710" t="b">
+      <c r="D710" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14651,7 +14665,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D711" t="b">
+      <c r="D711" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14663,7 +14677,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
@@ -14671,8 +14685,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D712" t="b">
-        <v>1</v>
+      <c r="D712" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="713">
@@ -14691,7 +14705,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D713" t="b">
+      <c r="D713" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14711,7 +14725,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D714" t="b">
+      <c r="D714" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -14731,7 +14745,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D715" t="b">
+      <c r="D715" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14751,7 +14765,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D716" t="b">
+      <c r="D716" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14771,7 +14785,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D717" t="b">
+      <c r="D717" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14791,7 +14805,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D718" t="b">
+      <c r="D718" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14811,7 +14825,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D719" t="b">
+      <c r="D719" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -14831,7 +14845,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D720" t="b">
+      <c r="D720" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14851,7 +14865,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D721" t="b">
+      <c r="D721" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14871,7 +14885,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D722" t="b">
+      <c r="D722" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -14891,7 +14905,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D723" t="b">
+      <c r="D723" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -14911,7 +14925,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D724" t="b">
+      <c r="D724" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -14931,7 +14945,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D725" t="b">
+      <c r="D725" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -14951,7 +14965,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D726" t="b">
+      <c r="D726" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -14971,7 +14985,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D727" t="b">
+      <c r="D727" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -14991,7 +15005,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D728" t="b">
+      <c r="D728" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -15011,7 +15025,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D729" t="b">
+      <c r="D729" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -15031,7 +15045,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D730" t="b">
+      <c r="D730" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -15051,7 +15065,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D731" t="b">
+      <c r="D731" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -15071,7 +15085,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D732" t="b">
+      <c r="D732" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -15091,7 +15105,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D733" t="b">
+      <c r="D733" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -15111,7 +15125,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D734" t="b">
+      <c r="D734" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -15131,7 +15145,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D735" t="b">
+      <c r="D735" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -15151,7 +15165,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D736" t="b">
+      <c r="D736" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -15171,7 +15185,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D737" t="b">
+      <c r="D737" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -15191,7 +15205,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D738" t="b">
+      <c r="D738" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -15211,7 +15225,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D739" t="b">
+      <c r="D739" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -15231,7 +15245,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D740" t="b">
+      <c r="D740" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -15251,7 +15265,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D741" t="b">
+      <c r="D741" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -15271,7 +15285,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D742" t="b">
+      <c r="D742" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -15291,7 +15305,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D743" t="b">
+      <c r="D743" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -15311,7 +15325,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D744" t="b">
+      <c r="D744" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -15331,7 +15345,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D745" t="b">
+      <c r="D745" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -15351,7 +15365,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D746" t="b">
+      <c r="D746" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -15371,7 +15385,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D747" t="b">
+      <c r="D747" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -15391,7 +15405,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D748" t="b">
+      <c r="D748" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -15411,7 +15425,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D749" t="b">
+      <c r="D749" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -15431,7 +15445,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D750" t="b">
+      <c r="D750" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -15451,7 +15465,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D751" t="b">
+      <c r="D751" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -15471,7 +15485,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D752" t="b">
+      <c r="D752" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -15491,7 +15505,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D753" t="b">
+      <c r="D753" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -15511,7 +15525,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D754" t="b">
+      <c r="D754" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -15531,7 +15545,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D755" t="b">
+      <c r="D755" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -15551,7 +15565,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D756" t="b">
+      <c r="D756" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -15571,7 +15585,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D757" t="b">
+      <c r="D757" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -15591,7 +15605,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D758" t="b">
+      <c r="D758" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -15611,7 +15625,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D759" t="b">
+      <c r="D759" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -15631,7 +15645,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D760" t="b">
+      <c r="D760" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -15651,7 +15665,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D761" t="b">
+      <c r="D761" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -15671,7 +15685,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D762" t="b">
+      <c r="D762" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -15691,7 +15705,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D763" t="b">
+      <c r="D763" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -15711,7 +15725,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D764" t="b">
+      <c r="D764" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -15731,7 +15745,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D765" t="b">
+      <c r="D765" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -15751,7 +15765,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D766" t="b">
+      <c r="D766" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -15771,7 +15785,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D767" t="b">
+      <c r="D767" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -15791,7 +15805,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D768" t="b">
+      <c r="D768" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -15803,7 +15817,7 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C769" t="inlineStr">
@@ -15811,8 +15825,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D769" t="b">
-        <v>0</v>
+      <c r="D769" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="770">
@@ -15831,7 +15845,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D770" t="b">
+      <c r="D770" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -15851,7 +15865,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D771" t="b">
+      <c r="D771" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -15871,7 +15885,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D772" t="b">
+      <c r="D772" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -15891,7 +15905,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D773" t="b">
+      <c r="D773" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -15911,7 +15925,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D774" t="b">
+      <c r="D774" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -15931,7 +15945,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D775" t="b">
+      <c r="D775" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -15951,7 +15965,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D776" t="b">
+      <c r="D776" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -15971,7 +15985,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D777" t="b">
+      <c r="D777" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -15991,7 +16005,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D778" t="b">
+      <c r="D778" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -16003,7 +16017,7 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C779" t="inlineStr">
@@ -16011,8 +16025,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D779" t="b">
-        <v>1</v>
+      <c r="D779" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="780">
@@ -16031,7 +16045,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D780" t="b">
+      <c r="D780" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -16051,7 +16065,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D781" t="b">
+      <c r="D781" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -16071,7 +16085,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D782" t="b">
+      <c r="D782" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -16091,7 +16105,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D783" t="b">
+      <c r="D783" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -16111,7 +16125,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D784" t="b">
+      <c r="D784" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -16131,7 +16145,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D785" t="b">
+      <c r="D785" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -16151,7 +16165,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D786" t="b">
+      <c r="D786" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -16171,7 +16185,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D787" t="b">
+      <c r="D787" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -16191,7 +16205,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D788" t="b">
+      <c r="D788" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -16211,7 +16225,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D789" t="b">
+      <c r="D789" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -16231,7 +16245,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D790" t="b">
+      <c r="D790" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -16251,7 +16265,7 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D791" t="b">
+      <c r="D791" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -16271,7 +16285,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D792" t="b">
+      <c r="D792" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -16291,7 +16305,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D793" t="b">
+      <c r="D793" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -16311,7 +16325,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D794" t="b">
+      <c r="D794" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -16331,7 +16345,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D795" t="b">
+      <c r="D795" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -16351,7 +16365,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D796" t="b">
+      <c r="D796" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -16371,7 +16385,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D797" t="b">
+      <c r="D797" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -16391,7 +16405,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D798" t="b">
+      <c r="D798" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -16411,7 +16425,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D799" t="b">
+      <c r="D799" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -16431,7 +16445,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D800" t="b">
+      <c r="D800" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -16451,7 +16465,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D801" t="b">
+      <c r="D801" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -16471,7 +16485,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D802" t="b">
+      <c r="D802" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -16491,7 +16505,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D803" t="b">
+      <c r="D803" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -16511,7 +16525,7 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D804" t="b">
+      <c r="D804" s="2" t="b">
         <v>1</v>
       </c>
     </row>

--- a/tahmin_sonuclari.xlsx
+++ b/tahmin_sonuclari.xlsx
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1085,8 +1085,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D32" s="3" t="b">
-        <v>0</v>
+      <c r="D32" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1165,8 +1165,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D36" s="3" t="b">
-        <v>0</v>
+      <c r="D36" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1205,8 +1205,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D38" s="3" t="b">
-        <v>0</v>
+      <c r="D38" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1385,8 +1385,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D47" s="3" t="b">
-        <v>0</v>
+      <c r="D47" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1505,8 +1505,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D53" s="3" t="b">
-        <v>0</v>
+      <c r="D53" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1745,8 +1745,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D65" s="3" t="b">
-        <v>0</v>
+      <c r="D65" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2537,7 +2537,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2545,8 +2545,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D105" s="2" t="b">
-        <v>1</v>
+      <c r="D105" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -3117,7 +3117,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3125,8 +3125,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D134" s="3" t="b">
-        <v>0</v>
+      <c r="D134" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -3257,7 +3257,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -3265,8 +3265,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D141" s="3" t="b">
-        <v>0</v>
+      <c r="D141" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -5357,7 +5357,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -5365,8 +5365,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D246" s="3" t="b">
-        <v>0</v>
+      <c r="D246" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -5817,7 +5817,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -5825,8 +5825,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D269" s="2" t="b">
-        <v>1</v>
+      <c r="D269" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="270">
@@ -5857,7 +5857,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -5865,8 +5865,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D271" s="3" t="b">
-        <v>0</v>
+      <c r="D271" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -5997,7 +5997,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -6005,8 +6005,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D278" s="2" t="b">
-        <v>1</v>
+      <c r="D278" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="279">
@@ -6057,7 +6057,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -6065,8 +6065,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D281" s="3" t="b">
-        <v>0</v>
+      <c r="D281" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="282">
@@ -6837,7 +6837,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -6845,8 +6845,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D320" s="3" t="b">
-        <v>0</v>
+      <c r="D320" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="321">
@@ -7377,7 +7377,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -7385,8 +7385,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D347" s="2" t="b">
-        <v>1</v>
+      <c r="D347" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="348">
@@ -7757,7 +7757,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -7765,8 +7765,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D366" s="3" t="b">
-        <v>0</v>
+      <c r="D366" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="367">
@@ -7877,7 +7877,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -7885,8 +7885,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D372" s="3" t="b">
-        <v>0</v>
+      <c r="D372" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="373">
@@ -7977,7 +7977,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -7985,8 +7985,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D377" s="3" t="b">
-        <v>0</v>
+      <c r="D377" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="378">
@@ -8017,7 +8017,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -8025,8 +8025,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D379" s="3" t="b">
-        <v>0</v>
+      <c r="D379" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="380">
@@ -8037,7 +8037,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -8045,8 +8045,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D380" s="3" t="b">
-        <v>0</v>
+      <c r="D380" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="381">
@@ -8097,7 +8097,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -8105,8 +8105,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D383" s="3" t="b">
-        <v>0</v>
+      <c r="D383" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="384">
@@ -8177,7 +8177,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -8185,8 +8185,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D387" s="3" t="b">
-        <v>0</v>
+      <c r="D387" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="388">
@@ -8917,7 +8917,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -8925,8 +8925,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D424" s="3" t="b">
-        <v>0</v>
+      <c r="D424" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="425">
@@ -8937,7 +8937,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -8945,8 +8945,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D425" s="3" t="b">
-        <v>0</v>
+      <c r="D425" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="426">
@@ -10797,7 +10797,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -10805,8 +10805,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D518" s="3" t="b">
-        <v>0</v>
+      <c r="D518" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="519">
@@ -12397,7 +12397,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
@@ -12405,8 +12405,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D598" s="2" t="b">
-        <v>1</v>
+      <c r="D598" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="599">
@@ -12537,7 +12537,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
@@ -12545,8 +12545,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D605" s="2" t="b">
-        <v>1</v>
+      <c r="D605" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="606">
@@ -13077,7 +13077,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C632" t="inlineStr">
@@ -13085,8 +13085,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D632" s="3" t="b">
-        <v>0</v>
+      <c r="D632" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="633">
@@ -13277,7 +13277,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C642" t="inlineStr">
@@ -13285,8 +13285,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D642" s="2" t="b">
-        <v>1</v>
+      <c r="D642" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="643">
@@ -15797,7 +15797,7 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C768" t="inlineStr">
@@ -15805,8 +15805,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D768" s="3" t="b">
-        <v>0</v>
+      <c r="D768" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="769">
@@ -16377,7 +16377,7 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C797" t="inlineStr">
@@ -16385,8 +16385,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D797" s="2" t="b">
-        <v>1</v>
+      <c r="D797" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="798">

--- a/tahmin_sonuclari.xlsx
+++ b/tahmin_sonuclari.xlsx
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1385,8 +1385,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D47" s="2" t="b">
-        <v>1</v>
+      <c r="D47" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -1957,7 +1957,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1965,8 +1965,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D76" s="3" t="b">
-        <v>0</v>
+      <c r="D76" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2225,8 +2225,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D89" s="2" t="b">
-        <v>1</v>
+      <c r="D89" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2517,7 +2517,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2525,8 +2525,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D104" s="2" t="b">
-        <v>1</v>
+      <c r="D104" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -2537,7 +2537,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2545,8 +2545,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D105" s="3" t="b">
-        <v>0</v>
+      <c r="D105" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -2997,7 +2997,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -3005,8 +3005,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D128" s="3" t="b">
-        <v>0</v>
+      <c r="D128" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -3077,7 +3077,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3085,8 +3085,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D132" s="3" t="b">
-        <v>0</v>
+      <c r="D132" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -3137,7 +3137,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -3145,8 +3145,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D135" s="3" t="b">
-        <v>0</v>
+      <c r="D135" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -3157,7 +3157,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -3165,8 +3165,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D136" s="2" t="b">
-        <v>1</v>
+      <c r="D136" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -3197,7 +3197,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -3205,8 +3205,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D138" s="3" t="b">
-        <v>0</v>
+      <c r="D138" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -3397,7 +3397,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -3405,8 +3405,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D148" s="3" t="b">
-        <v>0</v>
+      <c r="D148" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -3537,7 +3537,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -3545,8 +3545,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D155" s="3" t="b">
-        <v>0</v>
+      <c r="D155" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -3637,7 +3637,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3645,8 +3645,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D160" s="2" t="b">
-        <v>1</v>
+      <c r="D160" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="161">
@@ -3697,7 +3697,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -3705,8 +3705,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D163" s="2" t="b">
-        <v>1</v>
+      <c r="D163" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -3837,7 +3837,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3845,8 +3845,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D170" s="3" t="b">
-        <v>0</v>
+      <c r="D170" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -4197,7 +4197,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -4205,8 +4205,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D188" s="2" t="b">
-        <v>1</v>
+      <c r="D188" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -4237,7 +4237,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -4245,8 +4245,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D190" s="3" t="b">
-        <v>0</v>
+      <c r="D190" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -4377,7 +4377,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -4385,8 +4385,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D197" s="3" t="b">
-        <v>0</v>
+      <c r="D197" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -5097,7 +5097,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -5105,8 +5105,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D233" s="3" t="b">
-        <v>0</v>
+      <c r="D233" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -5177,7 +5177,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -5185,8 +5185,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D237" s="3" t="b">
-        <v>0</v>
+      <c r="D237" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -5197,7 +5197,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -5205,8 +5205,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D238" s="2" t="b">
-        <v>1</v>
+      <c r="D238" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="239">
@@ -5217,7 +5217,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -5225,8 +5225,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D239" s="3" t="b">
-        <v>0</v>
+      <c r="D239" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -5265,8 +5265,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D241" s="3" t="b">
-        <v>0</v>
+      <c r="D241" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -5297,7 +5297,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -5305,8 +5305,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D243" s="3" t="b">
-        <v>0</v>
+      <c r="D243" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -5397,7 +5397,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -5405,8 +5405,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D248" s="2" t="b">
-        <v>1</v>
+      <c r="D248" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="249">
@@ -5617,7 +5617,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -5625,8 +5625,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D259" s="2" t="b">
-        <v>1</v>
+      <c r="D259" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="260">
@@ -5917,7 +5917,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -5925,8 +5925,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D274" s="3" t="b">
-        <v>0</v>
+      <c r="D274" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -6757,7 +6757,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -6765,8 +6765,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D316" s="2" t="b">
-        <v>1</v>
+      <c r="D316" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="317">
@@ -6777,7 +6777,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -6785,8 +6785,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D317" s="3" t="b">
-        <v>0</v>
+      <c r="D317" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="318">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -7005,8 +7005,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D328" s="2" t="b">
-        <v>1</v>
+      <c r="D328" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="329">
@@ -7017,7 +7017,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -7025,8 +7025,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D329" s="3" t="b">
-        <v>0</v>
+      <c r="D329" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="330">
@@ -7077,7 +7077,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -7085,8 +7085,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D332" s="3" t="b">
-        <v>0</v>
+      <c r="D332" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="333">
@@ -7177,7 +7177,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -7185,8 +7185,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D337" s="3" t="b">
-        <v>0</v>
+      <c r="D337" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="338">
@@ -7937,7 +7937,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -7945,8 +7945,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D375" s="2" t="b">
-        <v>1</v>
+      <c r="D375" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="376">
@@ -8797,7 +8797,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -8805,8 +8805,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D418" s="3" t="b">
-        <v>0</v>
+      <c r="D418" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="419">
@@ -9017,7 +9017,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -9025,8 +9025,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D429" s="3" t="b">
-        <v>0</v>
+      <c r="D429" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="430">
@@ -9117,7 +9117,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -9125,8 +9125,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D434" s="3" t="b">
-        <v>0</v>
+      <c r="D434" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="435">
@@ -10517,7 +10517,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -10525,8 +10525,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D504" s="2" t="b">
-        <v>1</v>
+      <c r="D504" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="505">
@@ -10777,7 +10777,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -10785,8 +10785,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D517" s="2" t="b">
-        <v>1</v>
+      <c r="D517" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="518">
@@ -10937,7 +10937,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -10945,8 +10945,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D525" s="2" t="b">
-        <v>1</v>
+      <c r="D525" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="526">
@@ -10997,7 +10997,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -11005,8 +11005,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D528" s="3" t="b">
-        <v>0</v>
+      <c r="D528" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="529">
@@ -11957,7 +11957,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
@@ -11965,8 +11965,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D576" s="3" t="b">
-        <v>0</v>
+      <c r="D576" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="577">
@@ -11977,7 +11977,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
@@ -11985,8 +11985,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D577" s="2" t="b">
-        <v>1</v>
+      <c r="D577" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="578">
@@ -12117,7 +12117,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
@@ -12125,8 +12125,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D584" s="3" t="b">
-        <v>0</v>
+      <c r="D584" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="585">
@@ -12357,7 +12357,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -12365,8 +12365,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D596" s="2" t="b">
-        <v>1</v>
+      <c r="D596" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="597">
@@ -12557,7 +12557,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
@@ -12565,8 +12565,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D606" s="2" t="b">
-        <v>1</v>
+      <c r="D606" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="607">
@@ -12977,7 +12977,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -12985,8 +12985,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D627" s="3" t="b">
-        <v>0</v>
+      <c r="D627" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="628">
@@ -13837,7 +13837,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C670" t="inlineStr">
@@ -13845,8 +13845,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D670" s="3" t="b">
-        <v>0</v>
+      <c r="D670" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="671">
@@ -14217,7 +14217,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C689" t="inlineStr">
@@ -14225,8 +14225,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D689" s="3" t="b">
-        <v>0</v>
+      <c r="D689" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="690">
@@ -14237,7 +14237,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C690" t="inlineStr">
@@ -14245,8 +14245,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D690" s="3" t="b">
-        <v>0</v>
+      <c r="D690" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="691">
@@ -14457,7 +14457,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
@@ -14465,8 +14465,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D701" s="3" t="b">
-        <v>0</v>
+      <c r="D701" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="702">
@@ -14677,7 +14677,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C712" t="inlineStr">
@@ -14685,8 +14685,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D712" s="3" t="b">
-        <v>0</v>
+      <c r="D712" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="713">
@@ -14877,7 +14877,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
@@ -14885,8 +14885,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D722" s="3" t="b">
-        <v>0</v>
+      <c r="D722" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="723">
@@ -14897,7 +14897,7 @@
       </c>
       <c r="B723" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C723" t="inlineStr">
@@ -14905,8 +14905,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D723" s="3" t="b">
-        <v>0</v>
+      <c r="D723" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="724">
@@ -15017,7 +15017,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C729" t="inlineStr">
@@ -15025,8 +15025,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D729" s="3" t="b">
-        <v>0</v>
+      <c r="D729" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="730">
@@ -15257,7 +15257,7 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C741" t="inlineStr">
@@ -15265,8 +15265,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D741" s="3" t="b">
-        <v>0</v>
+      <c r="D741" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="742">
@@ -15817,7 +15817,7 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C769" t="inlineStr">
@@ -15825,8 +15825,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D769" s="2" t="b">
-        <v>1</v>
+      <c r="D769" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="770">
@@ -15897,7 +15897,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C773" t="inlineStr">
@@ -15905,8 +15905,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D773" s="3" t="b">
-        <v>0</v>
+      <c r="D773" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="774">
@@ -15917,7 +15917,7 @@
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C774" t="inlineStr">
@@ -15925,8 +15925,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D774" s="3" t="b">
-        <v>0</v>
+      <c r="D774" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="775">
@@ -15937,7 +15937,7 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C775" t="inlineStr">
@@ -15945,8 +15945,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D775" s="3" t="b">
-        <v>0</v>
+      <c r="D775" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="776">

--- a/tahmin_sonuclari.xlsx
+++ b/tahmin_sonuclari.xlsx
@@ -877,7 +877,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -885,8 +885,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D22" s="3" t="b">
-        <v>0</v>
+      <c r="D22" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -997,7 +997,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1005,8 +1005,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D28" s="2" t="b">
-        <v>1</v>
+      <c r="D28" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1025,8 +1025,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D29" s="2" t="b">
-        <v>1</v>
+      <c r="D29" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1245,8 +1245,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D40" s="2" t="b">
-        <v>1</v>
+      <c r="D40" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1545,8 +1545,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D55" s="2" t="b">
-        <v>1</v>
+      <c r="D55" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1805,8 +1805,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D68" s="2" t="b">
-        <v>1</v>
+      <c r="D68" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -3017,7 +3017,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3025,8 +3025,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D129" s="3" t="b">
-        <v>0</v>
+      <c r="D129" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -3157,7 +3157,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -3165,8 +3165,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D136" s="3" t="b">
-        <v>0</v>
+      <c r="D136" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -3637,7 +3637,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3645,8 +3645,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D160" s="3" t="b">
-        <v>0</v>
+      <c r="D160" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -3697,7 +3697,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -3705,8 +3705,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D163" s="3" t="b">
-        <v>0</v>
+      <c r="D163" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -3877,7 +3877,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -3885,8 +3885,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D172" s="2" t="b">
-        <v>1</v>
+      <c r="D172" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -4197,7 +4197,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -4205,8 +4205,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D188" s="3" t="b">
-        <v>0</v>
+      <c r="D188" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -4237,7 +4237,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -4245,8 +4245,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D190" s="2" t="b">
-        <v>1</v>
+      <c r="D190" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -5237,7 +5237,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -5245,8 +5245,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D240" s="2" t="b">
-        <v>1</v>
+      <c r="D240" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -5617,7 +5617,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -5625,8 +5625,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D259" s="3" t="b">
-        <v>0</v>
+      <c r="D259" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -5817,7 +5817,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -5825,8 +5825,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D269" s="3" t="b">
-        <v>0</v>
+      <c r="D269" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -5997,7 +5997,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -6005,8 +6005,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D278" s="3" t="b">
-        <v>0</v>
+      <c r="D278" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -6177,7 +6177,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -6185,8 +6185,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D287" s="3" t="b">
-        <v>0</v>
+      <c r="D287" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -6757,7 +6757,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -6765,8 +6765,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D316" s="3" t="b">
-        <v>0</v>
+      <c r="D316" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="317">
@@ -6837,7 +6837,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -6845,8 +6845,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D320" s="2" t="b">
-        <v>1</v>
+      <c r="D320" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="321">
@@ -6997,7 +6997,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -7005,8 +7005,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D328" s="3" t="b">
-        <v>0</v>
+      <c r="D328" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="329">
@@ -7817,7 +7817,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -7825,8 +7825,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D369" s="2" t="b">
-        <v>1</v>
+      <c r="D369" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="370">
@@ -7877,7 +7877,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -7885,8 +7885,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D372" s="2" t="b">
-        <v>1</v>
+      <c r="D372" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="373">
@@ -7937,7 +7937,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -7945,8 +7945,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D375" s="3" t="b">
-        <v>0</v>
+      <c r="D375" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="376">
@@ -8037,7 +8037,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -8045,8 +8045,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D380" s="2" t="b">
-        <v>1</v>
+      <c r="D380" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="381">
@@ -8097,7 +8097,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -8105,8 +8105,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D383" s="2" t="b">
-        <v>1</v>
+      <c r="D383" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="384">
@@ -9297,7 +9297,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -9305,8 +9305,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D443" s="3" t="b">
-        <v>0</v>
+      <c r="D443" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="444">
@@ -9377,7 +9377,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -9385,8 +9385,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D447" s="3" t="b">
-        <v>0</v>
+      <c r="D447" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="448">
@@ -9917,7 +9917,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -9925,8 +9925,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D474" s="2" t="b">
-        <v>1</v>
+      <c r="D474" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="475">
@@ -10217,7 +10217,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -10225,8 +10225,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D489" s="2" t="b">
-        <v>1</v>
+      <c r="D489" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="490">
@@ -10517,7 +10517,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -10525,8 +10525,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D504" s="3" t="b">
-        <v>0</v>
+      <c r="D504" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="505">
@@ -10777,7 +10777,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -10785,8 +10785,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D517" s="3" t="b">
-        <v>0</v>
+      <c r="D517" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="518">
@@ -10797,7 +10797,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -10805,8 +10805,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D518" s="2" t="b">
-        <v>1</v>
+      <c r="D518" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="519">
@@ -10937,7 +10937,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -10945,8 +10945,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D525" s="3" t="b">
-        <v>0</v>
+      <c r="D525" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="526">
@@ -11717,7 +11717,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
@@ -11725,8 +11725,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D564" s="3" t="b">
-        <v>0</v>
+      <c r="D564" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="565">
@@ -12357,7 +12357,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -12365,8 +12365,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D596" s="3" t="b">
-        <v>0</v>
+      <c r="D596" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="597">
@@ -12397,7 +12397,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
@@ -12405,8 +12405,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D598" s="3" t="b">
-        <v>0</v>
+      <c r="D598" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="599">
@@ -12537,7 +12537,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
@@ -12545,8 +12545,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D605" s="3" t="b">
-        <v>0</v>
+      <c r="D605" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="606">
@@ -12557,7 +12557,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
@@ -12565,8 +12565,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D606" s="3" t="b">
-        <v>0</v>
+      <c r="D606" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="607">
@@ -13497,7 +13497,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
@@ -13505,8 +13505,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D653" s="3" t="b">
-        <v>0</v>
+      <c r="D653" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="654">
@@ -13797,7 +13797,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
@@ -13805,8 +13805,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D668" s="2" t="b">
-        <v>1</v>
+      <c r="D668" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="669">
@@ -13857,7 +13857,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
@@ -13865,8 +13865,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D671" s="2" t="b">
-        <v>1</v>
+      <c r="D671" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="672">
@@ -14057,7 +14057,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
@@ -14065,8 +14065,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D681" s="2" t="b">
-        <v>1</v>
+      <c r="D681" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="682">
@@ -14917,7 +14917,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C724" t="inlineStr">
@@ -14925,8 +14925,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D724" s="3" t="b">
-        <v>0</v>
+      <c r="D724" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="725">
@@ -14937,7 +14937,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C725" t="inlineStr">
@@ -14945,8 +14945,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D725" s="3" t="b">
-        <v>0</v>
+      <c r="D725" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="726">
@@ -15017,7 +15017,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C729" t="inlineStr">
@@ -15025,8 +15025,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D729" s="2" t="b">
-        <v>1</v>
+      <c r="D729" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="730">
@@ -15817,7 +15817,7 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C769" t="inlineStr">
@@ -15825,8 +15825,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D769" s="3" t="b">
-        <v>0</v>
+      <c r="D769" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="770">
@@ -16377,7 +16377,7 @@
       </c>
       <c r="B797" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C797" t="inlineStr">
@@ -16385,8 +16385,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D797" s="3" t="b">
-        <v>0</v>
+      <c r="D797" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="798">

--- a/tahmin_sonuclari.xlsx
+++ b/tahmin_sonuclari.xlsx
@@ -857,7 +857,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -865,8 +865,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D21" s="3" t="b">
-        <v>0</v>
+      <c r="D21" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -997,7 +997,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1005,8 +1005,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D28" s="3" t="b">
-        <v>0</v>
+      <c r="D28" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1025,8 +1025,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D29" s="3" t="b">
-        <v>0</v>
+      <c r="D29" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1045,8 +1045,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D30" s="3" t="b">
-        <v>0</v>
+      <c r="D30" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1157,12 +1157,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="D36" s="2" t="b">
@@ -1237,7 +1237,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1245,8 +1245,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D40" s="3" t="b">
-        <v>0</v>
+      <c r="D40" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1385,8 +1385,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D47" s="3" t="b">
-        <v>0</v>
+      <c r="D47" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1545,8 +1545,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D55" s="3" t="b">
-        <v>0</v>
+      <c r="D55" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1577,7 +1577,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1585,8 +1585,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D57" s="3" t="b">
-        <v>0</v>
+      <c r="D57" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1765,8 +1765,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D66" s="3" t="b">
-        <v>0</v>
+      <c r="D66" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -1797,7 +1797,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1805,8 +1805,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D68" s="3" t="b">
-        <v>0</v>
+      <c r="D68" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1865,8 +1865,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D71" s="3" t="b">
-        <v>0</v>
+      <c r="D71" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1905,8 +1905,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D73" s="3" t="b">
-        <v>0</v>
+      <c r="D73" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -1917,7 +1917,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1925,8 +1925,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D74" s="3" t="b">
-        <v>0</v>
+      <c r="D74" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2057,7 +2057,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2065,8 +2065,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D81" s="3" t="b">
-        <v>0</v>
+      <c r="D81" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -2317,7 +2317,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2325,8 +2325,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D94" s="3" t="b">
-        <v>0</v>
+      <c r="D94" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2385,8 +2385,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D97" s="3" t="b">
-        <v>0</v>
+      <c r="D97" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -2497,7 +2497,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2505,8 +2505,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D103" s="2" t="b">
-        <v>1</v>
+      <c r="D103" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -2522,11 +2522,11 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Pozitif</t>
-        </is>
-      </c>
-      <c r="D104" s="3" t="b">
-        <v>0</v>
+          <t>Negatif</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -3185,8 +3185,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D137" s="3" t="b">
-        <v>0</v>
+      <c r="D137" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -3317,7 +3317,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -3325,8 +3325,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D144" s="3" t="b">
-        <v>0</v>
+      <c r="D144" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -3357,7 +3357,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -3365,8 +3365,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D146" s="3" t="b">
-        <v>0</v>
+      <c r="D146" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -3377,7 +3377,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -3385,8 +3385,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D147" s="3" t="b">
-        <v>0</v>
+      <c r="D147" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -3437,7 +3437,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -3445,8 +3445,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D150" s="2" t="b">
-        <v>1</v>
+      <c r="D150" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -3477,7 +3477,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -3485,8 +3485,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D152" s="3" t="b">
-        <v>0</v>
+      <c r="D152" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -3497,7 +3497,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -3505,8 +3505,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D153" s="3" t="b">
-        <v>0</v>
+      <c r="D153" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -3837,7 +3837,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3845,8 +3845,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D170" s="2" t="b">
-        <v>1</v>
+      <c r="D170" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -3877,7 +3877,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -3885,8 +3885,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D172" s="3" t="b">
-        <v>0</v>
+      <c r="D172" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -3997,7 +3997,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -4005,8 +4005,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D178" s="3" t="b">
-        <v>0</v>
+      <c r="D178" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -4157,7 +4157,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -4165,8 +4165,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D186" s="2" t="b">
-        <v>1</v>
+      <c r="D186" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -4237,7 +4237,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -4245,8 +4245,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D190" s="3" t="b">
-        <v>0</v>
+      <c r="D190" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -4305,8 +4305,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D193" s="2" t="b">
-        <v>1</v>
+      <c r="D193" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="194">
@@ -4357,7 +4357,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -4365,8 +4365,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D196" s="3" t="b">
-        <v>0</v>
+      <c r="D196" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -4557,7 +4557,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -4565,8 +4565,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D206" s="2" t="b">
-        <v>1</v>
+      <c r="D206" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -4617,7 +4617,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -4625,8 +4625,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D209" s="3" t="b">
-        <v>0</v>
+      <c r="D209" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -4657,7 +4657,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -4665,8 +4665,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D211" s="3" t="b">
-        <v>0</v>
+      <c r="D211" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -4737,7 +4737,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -4745,8 +4745,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D215" s="3" t="b">
-        <v>0</v>
+      <c r="D215" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -4757,7 +4757,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -4765,8 +4765,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D216" s="3" t="b">
-        <v>0</v>
+      <c r="D216" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -4877,7 +4877,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -4885,8 +4885,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D222" s="2" t="b">
-        <v>1</v>
+      <c r="D222" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -4917,7 +4917,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -4925,8 +4925,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D224" s="2" t="b">
-        <v>1</v>
+      <c r="D224" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="225">
@@ -4957,7 +4957,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -4965,8 +4965,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D226" s="2" t="b">
-        <v>1</v>
+      <c r="D226" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="227">
@@ -5137,7 +5137,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -5145,8 +5145,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D235" s="3" t="b">
-        <v>0</v>
+      <c r="D235" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -5237,7 +5237,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -5245,8 +5245,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D240" s="3" t="b">
-        <v>0</v>
+      <c r="D240" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -5317,7 +5317,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -5325,8 +5325,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D244" s="3" t="b">
-        <v>0</v>
+      <c r="D244" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -5517,7 +5517,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -5525,8 +5525,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D254" s="2" t="b">
-        <v>1</v>
+      <c r="D254" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="255">
@@ -5537,7 +5537,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -5545,8 +5545,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D255" s="3" t="b">
-        <v>0</v>
+      <c r="D255" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -5817,7 +5817,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -5825,8 +5825,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D269" s="2" t="b">
-        <v>1</v>
+      <c r="D269" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="270">
@@ -5997,7 +5997,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -6005,8 +6005,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D278" s="2" t="b">
-        <v>1</v>
+      <c r="D278" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="279">
@@ -6177,7 +6177,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -6185,8 +6185,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D287" s="2" t="b">
-        <v>1</v>
+      <c r="D287" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="288">
@@ -6237,7 +6237,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -6245,8 +6245,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D290" s="3" t="b">
-        <v>0</v>
+      <c r="D290" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="291">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -6945,8 +6945,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D325" s="2" t="b">
-        <v>1</v>
+      <c r="D325" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="326">
@@ -7117,7 +7117,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -7125,8 +7125,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D334" s="2" t="b">
-        <v>1</v>
+      <c r="D334" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="335">
@@ -7137,7 +7137,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -7145,8 +7145,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D335" s="2" t="b">
-        <v>1</v>
+      <c r="D335" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="336">
@@ -7197,7 +7197,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -7205,8 +7205,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D338" s="2" t="b">
-        <v>1</v>
+      <c r="D338" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="339">
@@ -7697,7 +7697,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -7705,8 +7705,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D363" s="2" t="b">
-        <v>1</v>
+      <c r="D363" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="364">
@@ -7817,7 +7817,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -7825,8 +7825,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D369" s="3" t="b">
-        <v>0</v>
+      <c r="D369" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="370">
@@ -7877,7 +7877,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -7885,8 +7885,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D372" s="3" t="b">
-        <v>0</v>
+      <c r="D372" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="373">
@@ -8037,7 +8037,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -8045,8 +8045,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D380" s="3" t="b">
-        <v>0</v>
+      <c r="D380" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="381">
@@ -8097,7 +8097,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -8105,8 +8105,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D383" s="3" t="b">
-        <v>0</v>
+      <c r="D383" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="384">
@@ -8117,7 +8117,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -8125,8 +8125,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D384" s="2" t="b">
-        <v>1</v>
+      <c r="D384" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="385">
@@ -8397,7 +8397,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -8405,8 +8405,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D398" s="2" t="b">
-        <v>1</v>
+      <c r="D398" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="399">
@@ -9077,7 +9077,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -9085,8 +9085,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D432" s="2" t="b">
-        <v>1</v>
+      <c r="D432" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="433">
@@ -9277,7 +9277,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -9285,8 +9285,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D442" s="2" t="b">
-        <v>1</v>
+      <c r="D442" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="443">
@@ -9297,7 +9297,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -9305,8 +9305,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D443" s="2" t="b">
-        <v>1</v>
+      <c r="D443" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="444">
@@ -9377,7 +9377,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -9385,8 +9385,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D447" s="2" t="b">
-        <v>1</v>
+      <c r="D447" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="448">
@@ -9477,7 +9477,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -9485,8 +9485,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D452" s="3" t="b">
-        <v>0</v>
+      <c r="D452" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="453">
@@ -9777,7 +9777,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -9785,8 +9785,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D467" s="3" t="b">
-        <v>0</v>
+      <c r="D467" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="468">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -9825,8 +9825,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D469" s="2" t="b">
-        <v>1</v>
+      <c r="D469" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="470">
@@ -9857,7 +9857,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -9865,8 +9865,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D471" s="3" t="b">
-        <v>0</v>
+      <c r="D471" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="472">
@@ -9917,7 +9917,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -9925,8 +9925,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D474" s="3" t="b">
-        <v>0</v>
+      <c r="D474" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="475">
@@ -10217,7 +10217,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -10225,8 +10225,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D489" s="3" t="b">
-        <v>0</v>
+      <c r="D489" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="490">
@@ -10797,7 +10797,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -10805,8 +10805,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D518" s="3" t="b">
-        <v>0</v>
+      <c r="D518" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="519">
@@ -10937,7 +10937,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -10945,8 +10945,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D525" s="2" t="b">
-        <v>1</v>
+      <c r="D525" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="526">
@@ -11197,7 +11197,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -11205,8 +11205,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D538" s="2" t="b">
-        <v>1</v>
+      <c r="D538" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="539">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -11505,8 +11505,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D553" s="3" t="b">
-        <v>0</v>
+      <c r="D553" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="554">
@@ -11717,7 +11717,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
@@ -11725,8 +11725,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D564" s="2" t="b">
-        <v>1</v>
+      <c r="D564" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="565">
@@ -11957,7 +11957,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
@@ -11965,8 +11965,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D576" s="2" t="b">
-        <v>1</v>
+      <c r="D576" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="577">
@@ -11977,7 +11977,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
@@ -11985,8 +11985,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D577" s="3" t="b">
-        <v>0</v>
+      <c r="D577" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="578">
@@ -11997,7 +11997,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
@@ -12005,8 +12005,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D578" s="3" t="b">
-        <v>0</v>
+      <c r="D578" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="579">
@@ -12017,7 +12017,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
@@ -12025,8 +12025,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D579" s="2" t="b">
-        <v>1</v>
+      <c r="D579" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="580">
@@ -12177,7 +12177,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
@@ -12185,8 +12185,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D587" s="3" t="b">
-        <v>0</v>
+      <c r="D587" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="588">
@@ -12357,7 +12357,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -12365,8 +12365,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D596" s="2" t="b">
-        <v>1</v>
+      <c r="D596" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="597">
@@ -12397,7 +12397,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
@@ -12405,8 +12405,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D598" s="2" t="b">
-        <v>1</v>
+      <c r="D598" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="599">
@@ -12537,7 +12537,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
@@ -12545,8 +12545,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D605" s="2" t="b">
-        <v>1</v>
+      <c r="D605" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="606">
@@ -12557,7 +12557,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
@@ -12565,8 +12565,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D606" s="2" t="b">
-        <v>1</v>
+      <c r="D606" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="607">
@@ -12917,7 +12917,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
@@ -12925,8 +12925,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D624" s="3" t="b">
-        <v>0</v>
+      <c r="D624" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="625">
@@ -12977,7 +12977,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -12985,8 +12985,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D627" s="2" t="b">
-        <v>1</v>
+      <c r="D627" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="628">
@@ -13497,7 +13497,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
@@ -13505,8 +13505,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D653" s="2" t="b">
-        <v>1</v>
+      <c r="D653" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="654">
@@ -13697,7 +13697,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
@@ -13705,8 +13705,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D663" s="2" t="b">
-        <v>1</v>
+      <c r="D663" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="664">
@@ -13817,7 +13817,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C669" t="inlineStr">
@@ -13825,8 +13825,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D669" s="3" t="b">
-        <v>0</v>
+      <c r="D669" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="670">
@@ -13857,7 +13857,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C671" t="inlineStr">
@@ -13865,8 +13865,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D671" s="3" t="b">
-        <v>0</v>
+      <c r="D671" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="672">
@@ -13977,7 +13977,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
@@ -13985,8 +13985,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D677" s="2" t="b">
-        <v>1</v>
+      <c r="D677" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="678">
@@ -13997,7 +13997,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
@@ -14005,8 +14005,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D678" s="2" t="b">
-        <v>1</v>
+      <c r="D678" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="679">
@@ -14157,7 +14157,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
@@ -14165,8 +14165,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D686" s="3" t="b">
-        <v>0</v>
+      <c r="D686" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="687">
@@ -14377,7 +14377,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
@@ -14385,8 +14385,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D697" s="3" t="b">
-        <v>0</v>
+      <c r="D697" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="698">
@@ -14457,7 +14457,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
@@ -14465,8 +14465,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D701" s="2" t="b">
-        <v>1</v>
+      <c r="D701" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="702">
@@ -14557,7 +14557,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C706" t="inlineStr">
@@ -14565,8 +14565,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D706" s="3" t="b">
-        <v>0</v>
+      <c r="D706" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="707">
@@ -14637,7 +14637,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C710" t="inlineStr">
@@ -14645,8 +14645,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D710" s="2" t="b">
-        <v>1</v>
+      <c r="D710" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="711">
@@ -14817,7 +14817,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
@@ -14825,8 +14825,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D719" s="3" t="b">
-        <v>0</v>
+      <c r="D719" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="720">
@@ -14977,7 +14977,7 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C727" t="inlineStr">
@@ -14985,8 +14985,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D727" s="2" t="b">
-        <v>1</v>
+      <c r="D727" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="728">
@@ -15017,7 +15017,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C729" t="inlineStr">
@@ -15025,8 +15025,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D729" s="3" t="b">
-        <v>0</v>
+      <c r="D729" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="730">
@@ -15097,7 +15097,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C733" t="inlineStr">
@@ -15105,8 +15105,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D733" s="3" t="b">
-        <v>0</v>
+      <c r="D733" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="734">
@@ -15137,7 +15137,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C735" t="inlineStr">
@@ -15145,8 +15145,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D735" s="2" t="b">
-        <v>1</v>
+      <c r="D735" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="736">
@@ -15217,7 +15217,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C739" t="inlineStr">
@@ -15225,8 +15225,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D739" s="3" t="b">
-        <v>0</v>
+      <c r="D739" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="740">
@@ -15857,7 +15857,7 @@
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C771" t="inlineStr">
@@ -15865,8 +15865,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D771" s="3" t="b">
-        <v>0</v>
+      <c r="D771" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="772">
@@ -15877,7 +15877,7 @@
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C772" t="inlineStr">
@@ -15885,8 +15885,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D772" s="3" t="b">
-        <v>0</v>
+      <c r="D772" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="773">
@@ -15957,7 +15957,7 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C776" t="inlineStr">
@@ -15965,8 +15965,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D776" s="3" t="b">
-        <v>0</v>
+      <c r="D776" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="777">
@@ -16017,7 +16017,7 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C779" t="inlineStr">
@@ -16025,8 +16025,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D779" s="3" t="b">
-        <v>0</v>
+      <c r="D779" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="780">
@@ -16157,7 +16157,7 @@
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C786" t="inlineStr">
@@ -16165,8 +16165,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D786" s="3" t="b">
-        <v>0</v>
+      <c r="D786" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="787">
@@ -16177,7 +16177,7 @@
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C787" t="inlineStr">
@@ -16185,8 +16185,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D787" s="3" t="b">
-        <v>0</v>
+      <c r="D787" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="788">
@@ -16437,7 +16437,7 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C800" t="inlineStr">
@@ -16445,8 +16445,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D800" s="3" t="b">
-        <v>0</v>
+      <c r="D800" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="801">

--- a/tahmin_sonuclari.xlsx
+++ b/tahmin_sonuclari.xlsx
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1025,8 +1025,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D29" s="2" t="b">
-        <v>1</v>
+      <c r="D29" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1837,7 +1837,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1845,8 +1845,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D70" s="3" t="b">
-        <v>0</v>
+      <c r="D70" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1985,8 +1985,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D77" s="2" t="b">
-        <v>1</v>
+      <c r="D77" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -1997,7 +1997,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2005,8 +2005,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D78" s="3" t="b">
-        <v>0</v>
+      <c r="D78" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2385,8 +2385,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D97" s="2" t="b">
-        <v>1</v>
+      <c r="D97" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3437,7 +3437,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -3445,8 +3445,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D150" s="3" t="b">
-        <v>0</v>
+      <c r="D150" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -3477,7 +3477,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -3485,8 +3485,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D152" s="2" t="b">
-        <v>1</v>
+      <c r="D152" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -3497,7 +3497,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -3505,8 +3505,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D153" s="2" t="b">
-        <v>1</v>
+      <c r="D153" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="154">
@@ -3837,7 +3837,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3845,8 +3845,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D170" s="3" t="b">
-        <v>0</v>
+      <c r="D170" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -3857,7 +3857,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3865,8 +3865,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D171" s="2" t="b">
-        <v>1</v>
+      <c r="D171" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -3877,7 +3877,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -3885,8 +3885,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D172" s="2" t="b">
-        <v>1</v>
+      <c r="D172" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -4157,7 +4157,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -4165,8 +4165,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D186" s="3" t="b">
-        <v>0</v>
+      <c r="D186" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -4177,7 +4177,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -4185,8 +4185,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D187" s="3" t="b">
-        <v>0</v>
+      <c r="D187" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -4237,7 +4237,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -4245,8 +4245,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D190" s="2" t="b">
-        <v>1</v>
+      <c r="D190" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="191">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -4305,8 +4305,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D193" s="3" t="b">
-        <v>0</v>
+      <c r="D193" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -4477,7 +4477,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -4485,8 +4485,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D202" s="3" t="b">
-        <v>0</v>
+      <c r="D202" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -4597,7 +4597,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -4605,8 +4605,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D208" s="3" t="b">
-        <v>0</v>
+      <c r="D208" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -4677,7 +4677,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -4685,8 +4685,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D212" s="3" t="b">
-        <v>0</v>
+      <c r="D212" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -4697,7 +4697,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -4705,8 +4705,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D213" s="3" t="b">
-        <v>0</v>
+      <c r="D213" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -4737,7 +4737,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -4745,8 +4745,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D215" s="2" t="b">
-        <v>1</v>
+      <c r="D215" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -4757,7 +4757,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -4765,8 +4765,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D216" s="2" t="b">
-        <v>1</v>
+      <c r="D216" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="217">
@@ -4957,7 +4957,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -4965,8 +4965,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D226" s="3" t="b">
-        <v>0</v>
+      <c r="D226" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -5237,7 +5237,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -5245,8 +5245,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D240" s="2" t="b">
-        <v>1</v>
+      <c r="D240" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -5277,7 +5277,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -5285,8 +5285,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D242" s="2" t="b">
-        <v>1</v>
+      <c r="D242" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="243">
@@ -5517,7 +5517,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -5525,8 +5525,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D254" s="3" t="b">
-        <v>0</v>
+      <c r="D254" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -5817,7 +5817,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -5825,8 +5825,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D269" s="3" t="b">
-        <v>0</v>
+      <c r="D269" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -5877,7 +5877,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -5885,8 +5885,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D272" s="3" t="b">
-        <v>0</v>
+      <c r="D272" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -5897,7 +5897,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -5905,8 +5905,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D273" s="2" t="b">
-        <v>1</v>
+      <c r="D273" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="274">
@@ -5937,7 +5937,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -5945,8 +5945,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D275" s="2" t="b">
-        <v>1</v>
+      <c r="D275" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="276">
@@ -5997,7 +5997,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -6005,8 +6005,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D278" s="3" t="b">
-        <v>0</v>
+      <c r="D278" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -6077,7 +6077,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -6085,8 +6085,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D282" s="3" t="b">
-        <v>0</v>
+      <c r="D282" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -6117,7 +6117,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -6125,8 +6125,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D284" s="3" t="b">
-        <v>0</v>
+      <c r="D284" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -6157,7 +6157,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -6165,8 +6165,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D286" s="3" t="b">
-        <v>0</v>
+      <c r="D286" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -6177,7 +6177,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -6185,8 +6185,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D287" s="3" t="b">
-        <v>0</v>
+      <c r="D287" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -6225,8 +6225,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D289" s="3" t="b">
-        <v>0</v>
+      <c r="D289" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -6237,7 +6237,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -6245,8 +6245,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D290" s="2" t="b">
-        <v>1</v>
+      <c r="D290" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="291">
@@ -6657,7 +6657,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -6665,8 +6665,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D311" s="3" t="b">
-        <v>0</v>
+      <c r="D311" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="312">
@@ -6837,7 +6837,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -6845,8 +6845,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D320" s="3" t="b">
-        <v>0</v>
+      <c r="D320" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="321">
@@ -6937,7 +6937,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -6945,8 +6945,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D325" s="3" t="b">
-        <v>0</v>
+      <c r="D325" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="326">
@@ -7117,7 +7117,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -7125,8 +7125,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D334" s="3" t="b">
-        <v>0</v>
+      <c r="D334" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="335">
@@ -7137,7 +7137,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -7145,8 +7145,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D335" s="3" t="b">
-        <v>0</v>
+      <c r="D335" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="336">
@@ -7197,7 +7197,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -7205,8 +7205,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D338" s="3" t="b">
-        <v>0</v>
+      <c r="D338" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="339">
@@ -7297,7 +7297,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -7305,8 +7305,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D343" s="3" t="b">
-        <v>0</v>
+      <c r="D343" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="344">
@@ -7557,7 +7557,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -7565,8 +7565,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D356" s="3" t="b">
-        <v>0</v>
+      <c r="D356" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="357">
@@ -7617,7 +7617,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -7625,8 +7625,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D359" s="3" t="b">
-        <v>0</v>
+      <c r="D359" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="360">
@@ -7697,7 +7697,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -7705,8 +7705,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D363" s="3" t="b">
-        <v>0</v>
+      <c r="D363" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="364">
@@ -8037,7 +8037,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -8045,8 +8045,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D380" s="2" t="b">
-        <v>1</v>
+      <c r="D380" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="381">
@@ -8057,7 +8057,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -8065,8 +8065,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D381" s="2" t="b">
-        <v>1</v>
+      <c r="D381" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="382">
@@ -8117,7 +8117,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -8125,8 +8125,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D384" s="3" t="b">
-        <v>0</v>
+      <c r="D384" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="385">
@@ -8257,7 +8257,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -8265,8 +8265,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D391" s="3" t="b">
-        <v>0</v>
+      <c r="D391" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="392">
@@ -8477,7 +8477,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -8485,8 +8485,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D402" s="3" t="b">
-        <v>0</v>
+      <c r="D402" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="403">
@@ -8597,7 +8597,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -8605,8 +8605,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D408" s="3" t="b">
-        <v>0</v>
+      <c r="D408" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="409">
@@ -8777,7 +8777,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -8785,8 +8785,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D417" s="2" t="b">
-        <v>1</v>
+      <c r="D417" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="418">
@@ -8977,7 +8977,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -8985,8 +8985,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D427" s="3" t="b">
-        <v>0</v>
+      <c r="D427" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="428">
@@ -9077,7 +9077,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -9085,8 +9085,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D432" s="3" t="b">
-        <v>0</v>
+      <c r="D432" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="433">
@@ -9157,7 +9157,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -9165,8 +9165,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D436" s="2" t="b">
-        <v>1</v>
+      <c r="D436" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="437">
@@ -9377,7 +9377,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -9385,8 +9385,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D447" s="3" t="b">
-        <v>0</v>
+      <c r="D447" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="448">
@@ -9477,7 +9477,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -9485,8 +9485,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D452" s="2" t="b">
-        <v>1</v>
+      <c r="D452" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="453">
@@ -9817,7 +9817,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -9825,8 +9825,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D469" s="3" t="b">
-        <v>0</v>
+      <c r="D469" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="470">
@@ -9837,7 +9837,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -9845,8 +9845,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D470" s="3" t="b">
-        <v>0</v>
+      <c r="D470" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="471">
@@ -10057,7 +10057,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -10065,8 +10065,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D481" s="2" t="b">
-        <v>1</v>
+      <c r="D481" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="482">
@@ -10177,7 +10177,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -10185,8 +10185,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D487" s="2" t="b">
-        <v>1</v>
+      <c r="D487" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="488">
@@ -10217,7 +10217,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -10225,8 +10225,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D489" s="2" t="b">
-        <v>1</v>
+      <c r="D489" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="490">
@@ -10337,7 +10337,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -10345,8 +10345,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D495" s="3" t="b">
-        <v>0</v>
+      <c r="D495" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="496">
@@ -10517,7 +10517,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -10525,8 +10525,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D504" s="2" t="b">
-        <v>1</v>
+      <c r="D504" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="505">
@@ -10537,7 +10537,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -10545,8 +10545,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D505" s="2" t="b">
-        <v>1</v>
+      <c r="D505" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="506">
@@ -10737,7 +10737,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -10745,8 +10745,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D515" s="3" t="b">
-        <v>0</v>
+      <c r="D515" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="516">
@@ -10897,7 +10897,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -10905,8 +10905,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D523" s="2" t="b">
-        <v>1</v>
+      <c r="D523" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="524">
@@ -10937,7 +10937,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -10945,8 +10945,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D525" s="3" t="b">
-        <v>0</v>
+      <c r="D525" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="526">
@@ -10977,7 +10977,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -10985,8 +10985,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D527" s="3" t="b">
-        <v>0</v>
+      <c r="D527" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="528">
@@ -11037,7 +11037,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -11045,8 +11045,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D530" s="3" t="b">
-        <v>0</v>
+      <c r="D530" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="531">
@@ -11097,7 +11097,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -11105,8 +11105,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D533" s="3" t="b">
-        <v>0</v>
+      <c r="D533" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="534">
@@ -11197,7 +11197,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -11205,8 +11205,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D538" s="3" t="b">
-        <v>0</v>
+      <c r="D538" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="539">
@@ -11497,7 +11497,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -11505,8 +11505,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D553" s="2" t="b">
-        <v>1</v>
+      <c r="D553" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="554">
@@ -11517,7 +11517,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -11525,8 +11525,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D554" s="3" t="b">
-        <v>0</v>
+      <c r="D554" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="555">
@@ -11617,7 +11617,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
@@ -11625,8 +11625,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D559" s="3" t="b">
-        <v>0</v>
+      <c r="D559" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="560">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -11945,8 +11945,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D575" s="2" t="b">
-        <v>1</v>
+      <c r="D575" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="576">
@@ -11957,7 +11957,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
@@ -11965,8 +11965,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D576" s="3" t="b">
-        <v>0</v>
+      <c r="D576" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="577">
@@ -11977,7 +11977,7 @@
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
@@ -11985,8 +11985,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D577" s="2" t="b">
-        <v>1</v>
+      <c r="D577" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="578">
@@ -12017,7 +12017,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
@@ -12025,8 +12025,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D579" s="3" t="b">
-        <v>0</v>
+      <c r="D579" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="580">
@@ -12337,7 +12337,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
@@ -12345,8 +12345,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D595" s="3" t="b">
-        <v>0</v>
+      <c r="D595" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="596">
@@ -12357,7 +12357,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -12365,8 +12365,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D596" s="3" t="b">
-        <v>0</v>
+      <c r="D596" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="597">
@@ -12377,7 +12377,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
@@ -12385,8 +12385,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D597" s="3" t="b">
-        <v>0</v>
+      <c r="D597" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="598">
@@ -12537,7 +12537,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
@@ -12545,8 +12545,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D605" s="3" t="b">
-        <v>0</v>
+      <c r="D605" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="606">
@@ -12557,7 +12557,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
@@ -12565,8 +12565,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D606" s="3" t="b">
-        <v>0</v>
+      <c r="D606" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="607">
@@ -12617,7 +12617,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
@@ -12625,8 +12625,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D609" s="3" t="b">
-        <v>0</v>
+      <c r="D609" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="610">
@@ -12797,7 +12797,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C618" t="inlineStr">
@@ -12805,8 +12805,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D618" s="3" t="b">
-        <v>0</v>
+      <c r="D618" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="619">
@@ -12977,7 +12977,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C627" t="inlineStr">
@@ -12985,8 +12985,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D627" s="3" t="b">
-        <v>0</v>
+      <c r="D627" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="628">
@@ -13057,7 +13057,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
@@ -13065,8 +13065,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D631" s="2" t="b">
-        <v>1</v>
+      <c r="D631" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="632">
@@ -13437,7 +13437,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
@@ -13445,8 +13445,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D650" s="2" t="b">
-        <v>1</v>
+      <c r="D650" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="651">
@@ -13497,7 +13497,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C653" t="inlineStr">
@@ -13505,8 +13505,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D653" s="3" t="b">
-        <v>0</v>
+      <c r="D653" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="654">
@@ -13577,7 +13577,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C657" t="inlineStr">
@@ -13585,8 +13585,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D657" s="3" t="b">
-        <v>0</v>
+      <c r="D657" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="658">
@@ -13637,7 +13637,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
@@ -13645,8 +13645,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D660" s="3" t="b">
-        <v>0</v>
+      <c r="D660" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="661">
@@ -13797,7 +13797,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C668" t="inlineStr">
@@ -13805,8 +13805,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D668" s="3" t="b">
-        <v>0</v>
+      <c r="D668" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="669">
@@ -13977,7 +13977,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C677" t="inlineStr">
@@ -13985,8 +13985,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D677" s="3" t="b">
-        <v>0</v>
+      <c r="D677" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="678">
@@ -13997,7 +13997,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C678" t="inlineStr">
@@ -14005,8 +14005,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D678" s="3" t="b">
-        <v>0</v>
+      <c r="D678" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="679">
@@ -14057,7 +14057,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C681" t="inlineStr">
@@ -14065,8 +14065,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D681" s="3" t="b">
-        <v>0</v>
+      <c r="D681" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="682">
@@ -14377,7 +14377,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C697" t="inlineStr">
@@ -14385,8 +14385,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D697" s="2" t="b">
-        <v>1</v>
+      <c r="D697" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="698">
@@ -14537,7 +14537,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C705" t="inlineStr">
@@ -14545,8 +14545,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D705" s="3" t="b">
-        <v>0</v>
+      <c r="D705" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="706">
@@ -14977,7 +14977,7 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C727" t="inlineStr">
@@ -14985,8 +14985,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D727" s="3" t="b">
-        <v>0</v>
+      <c r="D727" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="728">
@@ -15017,7 +15017,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C729" t="inlineStr">
@@ -15025,8 +15025,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D729" s="2" t="b">
-        <v>1</v>
+      <c r="D729" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="730">
@@ -15037,7 +15037,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C730" t="inlineStr">
@@ -15045,8 +15045,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D730" s="3" t="b">
-        <v>0</v>
+      <c r="D730" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="731">
@@ -15077,7 +15077,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C732" t="inlineStr">
@@ -15085,8 +15085,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D732" s="3" t="b">
-        <v>0</v>
+      <c r="D732" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="733">
@@ -15137,7 +15137,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C735" t="inlineStr">
@@ -15145,8 +15145,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D735" s="3" t="b">
-        <v>0</v>
+      <c r="D735" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="736">
@@ -15977,7 +15977,7 @@
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C777" t="inlineStr">
@@ -15985,8 +15985,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D777" s="2" t="b">
-        <v>1</v>
+      <c r="D777" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="778">
@@ -16057,7 +16057,7 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C781" t="inlineStr">
@@ -16065,8 +16065,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D781" s="2" t="b">
-        <v>1</v>
+      <c r="D781" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="782">
@@ -16237,7 +16237,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C790" t="inlineStr">
@@ -16245,8 +16245,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D790" s="3" t="b">
-        <v>0</v>
+      <c r="D790" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="791">
@@ -16417,7 +16417,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C799" t="inlineStr">
@@ -16425,8 +16425,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D799" s="3" t="b">
-        <v>0</v>
+      <c r="D799" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="800">

--- a/tahmin_sonuclari.xlsx
+++ b/tahmin_sonuclari.xlsx
@@ -897,7 +897,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -905,8 +905,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D23" s="3" t="b">
-        <v>0</v>
+      <c r="D23" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1025,8 +1025,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D29" s="3" t="b">
-        <v>0</v>
+      <c r="D29" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1577,7 +1577,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1585,8 +1585,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D57" s="2" t="b">
-        <v>1</v>
+      <c r="D57" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -1757,7 +1757,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1765,8 +1765,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D66" s="2" t="b">
-        <v>1</v>
+      <c r="D66" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1905,8 +1905,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D73" s="2" t="b">
-        <v>1</v>
+      <c r="D73" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2497,7 +2497,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2505,8 +2505,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D103" s="3" t="b">
-        <v>0</v>
+      <c r="D103" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -3377,7 +3377,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -3385,8 +3385,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D147" s="2" t="b">
-        <v>1</v>
+      <c r="D147" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -3997,7 +3997,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -4005,8 +4005,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D178" s="2" t="b">
-        <v>1</v>
+      <c r="D178" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -7677,7 +7677,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -7685,8 +7685,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D362" s="3" t="b">
-        <v>0</v>
+      <c r="D362" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="363">
@@ -9277,7 +9277,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -9285,8 +9285,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D442" s="3" t="b">
-        <v>0</v>
+      <c r="D442" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="443">
@@ -9857,7 +9857,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -9865,8 +9865,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D471" s="2" t="b">
-        <v>1</v>
+      <c r="D471" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="472">
@@ -12857,7 +12857,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C621" t="inlineStr">
@@ -12865,8 +12865,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D621" s="2" t="b">
-        <v>1</v>
+      <c r="D621" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="622">
@@ -14817,7 +14817,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C719" t="inlineStr">
@@ -14825,8 +14825,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D719" s="2" t="b">
-        <v>1</v>
+      <c r="D719" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="720">
@@ -15097,7 +15097,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C733" t="inlineStr">
@@ -15105,8 +15105,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D733" s="2" t="b">
-        <v>1</v>
+      <c r="D733" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="734">

--- a/tahmin_sonuclari.xlsx
+++ b/tahmin_sonuclari.xlsx
@@ -1217,7 +1217,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1225,8 +1225,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D39" s="2" t="b">
-        <v>1</v>
+      <c r="D39" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1877,7 +1877,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1885,8 +1885,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D72" s="3" t="b">
-        <v>0</v>
+      <c r="D72" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2437,7 +2437,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2445,8 +2445,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D100" s="2" t="b">
-        <v>1</v>
+      <c r="D100" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3457,7 +3457,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -3465,8 +3465,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D151" s="2" t="b">
-        <v>1</v>
+      <c r="D151" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="152">
@@ -4237,7 +4237,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -4245,8 +4245,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D190" s="3" t="b">
-        <v>0</v>
+      <c r="D190" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -4785,8 +4785,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D217" s="3" t="b">
-        <v>0</v>
+      <c r="D217" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -4877,7 +4877,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -4885,8 +4885,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D222" s="3" t="b">
-        <v>0</v>
+      <c r="D222" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -4977,7 +4977,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -4985,8 +4985,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D227" s="3" t="b">
-        <v>0</v>
+      <c r="D227" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -5197,7 +5197,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -5205,8 +5205,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D238" s="3" t="b">
-        <v>0</v>
+      <c r="D238" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -5237,7 +5237,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -5245,8 +5245,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D240" s="3" t="b">
-        <v>0</v>
+      <c r="D240" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -5297,7 +5297,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -5305,8 +5305,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D243" s="2" t="b">
-        <v>1</v>
+      <c r="D243" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="244">
@@ -5397,7 +5397,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -5405,8 +5405,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D248" s="3" t="b">
-        <v>0</v>
+      <c r="D248" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -5877,7 +5877,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -5885,8 +5885,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D272" s="2" t="b">
-        <v>1</v>
+      <c r="D272" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="273">
@@ -7237,7 +7237,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -7245,8 +7245,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D340" s="3" t="b">
-        <v>0</v>
+      <c r="D340" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="341">
@@ -7897,7 +7897,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -7905,8 +7905,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D373" s="2" t="b">
-        <v>1</v>
+      <c r="D373" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="374">
@@ -8217,7 +8217,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -8225,8 +8225,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D389" s="3" t="b">
-        <v>0</v>
+      <c r="D389" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="390">
@@ -8357,7 +8357,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -8365,8 +8365,8 @@
           <t>pozitif</t>
         </is>
       </c>
-      <c r="D396" s="3" t="b">
-        <v>0</v>
+      <c r="D396" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="397">
@@ -9177,7 +9177,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -9185,8 +9185,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D437" s="3" t="b">
-        <v>0</v>
+      <c r="D437" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="438">
@@ -9957,7 +9957,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -9965,8 +9965,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D476" s="3" t="b">
-        <v>0</v>
+      <c r="D476" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="477">
@@ -10077,7 +10077,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -10085,8 +10085,8 @@
           <t>negatif</t>
         </is>
       </c>
-      <c r="D482" s="2" t="b">
-        <v>1</v>
+      <c r="D482" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="483">
@@ -10517,7 +10517,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -10525,8 +10525,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D504" s="3" t="b">
-        <v>0</v>
+      <c r="D504" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="505">
@@ -10717,7 +10717,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -10725,8 +10725,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D514" s="2" t="b">
-        <v>1</v>
+      <c r="D514" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="515">
@@ -10897,7 +10897,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -10905,8 +10905,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D523" s="3" t="b">
-        <v>0</v>
+      <c r="D523" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="524">
@@ -12457,7 +12457,7 @@
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
@@ -12465,8 +12465,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D601" s="2" t="b">
-        <v>1</v>
+      <c r="D601" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="602">
@@ -13377,7 +13377,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C647" t="inlineStr">
@@ -13385,8 +13385,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D647" s="2" t="b">
-        <v>1</v>
+      <c r="D647" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="648">
@@ -13437,7 +13437,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C650" t="inlineStr">
@@ -13445,8 +13445,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D650" s="3" t="b">
-        <v>0</v>
+      <c r="D650" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="651">
@@ -13637,7 +13637,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C660" t="inlineStr">
@@ -13645,8 +13645,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D660" s="2" t="b">
-        <v>1</v>
+      <c r="D660" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="661">
@@ -13697,7 +13697,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C663" t="inlineStr">
@@ -13705,8 +13705,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D663" s="3" t="b">
-        <v>0</v>
+      <c r="D663" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="664">
@@ -13757,7 +13757,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
@@ -13765,8 +13765,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D666" s="3" t="b">
-        <v>0</v>
+      <c r="D666" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="667">
@@ -14457,7 +14457,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
@@ -14465,8 +14465,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D701" s="3" t="b">
-        <v>0</v>
+      <c r="D701" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="702">
@@ -15257,7 +15257,7 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C741" t="inlineStr">
@@ -15265,8 +15265,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D741" s="2" t="b">
-        <v>1</v>
+      <c r="D741" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="742">
@@ -15457,7 +15457,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C751" t="inlineStr">
@@ -15465,8 +15465,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D751" s="2" t="b">
-        <v>1</v>
+      <c r="D751" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="752">
@@ -15617,7 +15617,7 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>Pozitif</t>
+          <t>Negatif</t>
         </is>
       </c>
       <c r="C759" t="inlineStr">
@@ -15625,8 +15625,8 @@
           <t>Pozitif</t>
         </is>
       </c>
-      <c r="D759" s="2" t="b">
-        <v>1</v>
+      <c r="D759" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="760">
@@ -16257,7 +16257,7 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C791" t="inlineStr">
@@ -16265,8 +16265,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D791" s="2" t="b">
-        <v>1</v>
+      <c r="D791" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="792">

--- a/tahmin_sonuclari.xlsx
+++ b/tahmin_sonuclari.xlsx
@@ -14937,7 +14937,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>Negatif</t>
+          <t>Pozitif</t>
         </is>
       </c>
       <c r="C725" t="inlineStr">
@@ -14945,8 +14945,8 @@
           <t>Negatif</t>
         </is>
       </c>
-      <c r="D725" s="2" t="b">
-        <v>1</v>
+      <c r="D725" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="726">
